--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_3.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_3.xlsx
@@ -734,87 +734,87 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.05187388287495531</v>
+        <v>-0.04773246795729871</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0009439820479254562</v>
+        <v>0.003529454733178189</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>-0.02338696826347873</v>
+        <v>-0.02338571440742857</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09007195637087824</v>
+        <v>0.08800921676836866</v>
       </c>
       <c r="H4" t="n">
         <v>0.1765836888553475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06765696971427877</v>
+        <v>0.04431772209270889</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1740034647675341</v>
+        <v>0.2335887026319771</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02680415099216604</v>
+        <v>0.02888201030728041</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02680415099216604</v>
+        <v>0.02888201030728041</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02680415099216604</v>
+        <v>0.02888201030728041</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02680415099216604</v>
+        <v>0.02888201030728041</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02680415099216604</v>
+        <v>0.02888201030728041</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.04552997932519916</v>
+        <v>-0.04440878635235145</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01249006129960245</v>
+        <v>0.01546185229847409</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01249006129960245</v>
+        <v>0.01546185229847409</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01249006129960245</v>
+        <v>0.01546185229847409</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01249006129960245</v>
+        <v>0.01546185229847409</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.004880427459217097</v>
+        <v>-0.002243594873797641</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>0.01957885057515402</v>
+        <v>0.01956828193473128</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3391022624920905</v>
+        <v>0.3095123183964927</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9980585371063413</v>
+        <v>0.9980585269303408</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2494771857550874</v>
+        <v>0.2351125423645017</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.1241116322604653</v>
+        <v>-0.1016501426260057</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.1241116322604653</v>
+        <v>-0.1016501426260057</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.1241116322604653</v>
+        <v>-0.1016501426260057</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.1241116322604653</v>
+        <v>-0.1016501426260057</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.1241116322604653</v>
+        <v>-0.1016501426260057</v>
       </c>
     </row>
     <row r="5">
@@ -825,87 +825,87 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0884999030279961</v>
+        <v>0.0878303429372137</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02623119714582243</v>
+        <v>0.007570266830810672</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>-0.01076986603079464</v>
+        <v>-0.01076934091077364</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08498817719152707</v>
+        <v>-0.08341581328863253</v>
       </c>
       <c r="H5" t="n">
         <v>0.008470465394818614</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06461260376850414</v>
+        <v>-0.03709523380380935</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01714865455923202</v>
+        <v>0.01110641950291556</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09288878541155141</v>
+        <v>0.09362077286483089</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09288878541155141</v>
+        <v>0.09362077286483089</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09288878541155141</v>
+        <v>0.09362077286483089</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09288878541155141</v>
+        <v>0.09362077286483089</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09288878541155141</v>
+        <v>0.09362077286483089</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03907257593090303</v>
+        <v>0.03841251302450052</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1666850195954008</v>
+        <v>0.1697637390465495</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1666850195954008</v>
+        <v>0.1697637390465495</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1666850195954008</v>
+        <v>0.1697637390465495</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1666850195954008</v>
+        <v>0.1697637390465495</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08055120677404826</v>
+        <v>0.07684732214773723</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>0.002547708197908328</v>
+        <v>0.002569518534780741</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.2370695928747837</v>
+        <v>-0.2757286319891453</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.01176007064640282</v>
+        <v>-0.01175957327038293</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.1919907631676305</v>
+        <v>-0.1731374200454968</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1748710276668411</v>
+        <v>0.1996068343842733</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1748710276668411</v>
+        <v>0.1996068343842733</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1748710276668411</v>
+        <v>0.1996068343842733</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1748710276668411</v>
+        <v>0.1996068343842733</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1748710276668411</v>
+        <v>0.1996068343842733</v>
       </c>
     </row>
     <row r="6">
@@ -916,87 +916,87 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3986232733529309</v>
+        <v>0.3745722949508917</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.003810732522505944</v>
+        <v>0.0108233524329341</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0.005428281529131261</v>
+        <v>0.005428415353136614</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02264230602569224</v>
+        <v>-0.02176340813453632</v>
       </c>
       <c r="H6" t="n">
         <v>-0.006998576439943056</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9244468676338746</v>
+        <v>-0.5853825610473024</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1036291521376242</v>
+        <v>0.1092099056078688</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01258490536739621</v>
+        <v>0.01227868311514732</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01258490536739621</v>
+        <v>0.01227868311514732</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01258490536739621</v>
+        <v>0.01227868311514732</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01258490536739621</v>
+        <v>0.01227868311514732</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01258490536739621</v>
+        <v>0.01227868311514732</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01594298818971953</v>
+        <v>0.01548196401127856</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02853444162137766</v>
+        <v>0.02901910138476405</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02853444162137766</v>
+        <v>0.02901910138476405</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02853444162137766</v>
+        <v>0.02901910138476405</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02853444162137766</v>
+        <v>0.02901910138476405</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03546645953065838</v>
+        <v>0.04042368699391764</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>-0.02798543929541757</v>
+        <v>-0.02792400063696002</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01953192231727689</v>
+        <v>0.02006967430678697</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.0009891643595665743</v>
+        <v>-0.0009923803596952143</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.2749168129486725</v>
+        <v>-0.2385805568072223</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.001346568053862722</v>
+        <v>-0.003709672276386891</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.001346568053862722</v>
+        <v>-0.003709672276386891</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.001346568053862722</v>
+        <v>-0.003709672276386891</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.001346568053862722</v>
+        <v>-0.003709672276386891</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.001346568053862722</v>
+        <v>-0.003709672276386891</v>
       </c>
     </row>
     <row r="7">
@@ -1007,87 +1007,87 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.001170982222839289</v>
+        <v>-0.002652137098085483</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006734093804562768</v>
+        <v>-0.004311911308476452</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>-0.009329261653170464</v>
+        <v>-0.009326854645074184</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008851361442054456</v>
+        <v>0.00842628801705152</v>
       </c>
       <c r="H7" t="n">
         <v>0.0088485200339408</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.003451541226061649</v>
+        <v>-0.002490883107635324</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01424745298425955</v>
+        <v>0.01071837620674192</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006229315929172636</v>
+        <v>0.006488296195531847</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006229315929172636</v>
+        <v>0.006488296195531847</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006229315929172636</v>
+        <v>0.006488296195531847</v>
       </c>
       <c r="N7" t="n">
-        <v>0.006229315929172636</v>
+        <v>0.006488296195531847</v>
       </c>
       <c r="O7" t="n">
-        <v>0.006229315929172636</v>
+        <v>0.006488296195531847</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.009532950045318001</v>
+        <v>-0.009218006672720264</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002271393402855735</v>
+        <v>0.002542265861690634</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002271393402855735</v>
+        <v>0.002542265861690634</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002271393402855735</v>
+        <v>0.002542265861690634</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002271393402855735</v>
+        <v>0.002542265861690634</v>
       </c>
       <c r="U7" t="n">
-        <v>-3.464217738568709e-05</v>
+        <v>0.003266065330720999</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.01725069553802782</v>
+        <v>0.01725476411419057</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.01954693402987736</v>
+        <v>-0.01543777271351091</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.01073606452544258</v>
+        <v>-0.01073480961339238</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.008748282109931284</v>
+        <v>-0.02475407695816308</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01163882446555298</v>
+        <v>0.009902626476105058</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01163882446555298</v>
+        <v>0.009902626476105058</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01163882446555298</v>
+        <v>0.009902626476105058</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.01163882446555298</v>
+        <v>0.009902626476105058</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01163882446555298</v>
+        <v>0.009902626476105058</v>
       </c>
     </row>
     <row r="8">
@@ -1098,87 +1098,87 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01829545637981825</v>
+        <v>0.3516725545469022</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008428333541479821</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0.001364030838561233</v>
+        <v>0.001374112278964491</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.003393845031753801</v>
+        <v>0.0149941650477666</v>
       </c>
       <c r="H8" t="n">
         <v>-0.001561537790461512</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01132238646889546</v>
+        <v>0.7490542425701696</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01066450493333002</v>
+        <v>-0.1485170270381897</v>
       </c>
       <c r="K8" t="n">
-        <v>0.003074568314982732</v>
+        <v>-0.01611086368443455</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003074568314982732</v>
+        <v>-0.01611086368443455</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003074568314982732</v>
+        <v>-0.01611086368443455</v>
       </c>
       <c r="N8" t="n">
-        <v>0.003074568314982732</v>
+        <v>-0.01611086368443455</v>
       </c>
       <c r="O8" t="n">
-        <v>0.003074568314982732</v>
+        <v>-0.01611086368443455</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002466688130667525</v>
+        <v>-0.009219434288777372</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.006862898290515931</v>
+        <v>-0.0298889126835565</v>
       </c>
       <c r="R8" t="n">
-        <v>0.006862898290515931</v>
+        <v>-0.0298889126835565</v>
       </c>
       <c r="S8" t="n">
-        <v>0.006862898290515931</v>
+        <v>-0.0298889126835565</v>
       </c>
       <c r="T8" t="n">
-        <v>0.006862898290515931</v>
+        <v>-0.0298889126835565</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.0111588025583521</v>
+        <v>0.02113625930995764</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>0.009311345940453837</v>
+        <v>0.009687751875510072</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0002576761063070442</v>
+        <v>-0.03766542323461693</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.003052186202087448</v>
+        <v>0.003045803641832145</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.006004908624196345</v>
+        <v>0.2945444049337761</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.000578224727128989</v>
+        <v>0.01864004800960192</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.000578224727128989</v>
+        <v>0.01864004800960192</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.000578224727128989</v>
+        <v>0.01864004800960192</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.000578224727128989</v>
+        <v>0.01864004800960192</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.000578224727128989</v>
+        <v>0.01864004800960192</v>
       </c>
     </row>
     <row r="9">
@@ -1193,87 +1193,87 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.706549678885987</v>
+        <v>0.6635507740300308</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01937556449820543</v>
+        <v>0.01752971628518865</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>-0.001924485292979411</v>
+        <v>-0.00192445975697839</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0002076816083072643</v>
+        <v>0.0004275982251039289</v>
       </c>
       <c r="H9" t="n">
         <v>0.000364514126580565</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01261754287270171</v>
+        <v>0.008653350586134024</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02053166301796244</v>
+        <v>-0.01803568918372752</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.001949475053979002</v>
+        <v>-0.002746737613869504</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.001949475053979002</v>
+        <v>-0.002746737613869504</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.001949475053979002</v>
+        <v>-0.002746737613869504</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.001949475053979002</v>
+        <v>-0.002746737613869504</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.001949475053979002</v>
+        <v>-0.002746737613869504</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.001804861800194472</v>
+        <v>-0.002214662392586495</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.004884934371397374</v>
+        <v>-0.007030070873202833</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.004884934371397374</v>
+        <v>-0.007030070873202833</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.004884934371397374</v>
+        <v>-0.007030070873202833</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.004884934371397374</v>
+        <v>-0.007030070873202833</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.8979912184476485</v>
+        <v>-0.8967884991730629</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>0.009570174814806992</v>
+        <v>0.009567367390694694</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.009205058864202352</v>
+        <v>-0.01620400864816034</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.002613878696555147</v>
+        <v>-0.002616474632658985</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.001265188178607527</v>
+        <v>-0.001943487341739494</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.002871608082864323</v>
+        <v>0.00960941606437664</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.002871608082864323</v>
+        <v>0.00960941606437664</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.002871608082864323</v>
+        <v>0.00960941606437664</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.002871608082864323</v>
+        <v>0.00960941606437664</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.002871608082864323</v>
+        <v>0.00960941606437664</v>
       </c>
     </row>
     <row r="10">
@@ -1288,87 +1288,87 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.02019226247169049</v>
+        <v>0.0188455650098226</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.01748189665237697</v>
+        <v>0.003197859583914383</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>-0.02962156313686252</v>
+        <v>-0.02962203718488148</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02938390984735639</v>
+        <v>0.02899444618377784</v>
       </c>
       <c r="H10" t="n">
         <v>0.03064438672977546</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.007644467057778681</v>
+        <v>-0.004682444251297769</v>
       </c>
       <c r="J10" t="n">
-        <v>-6.347073860280804e-05</v>
+        <v>-0.01008600339638462</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02187296602691863</v>
+        <v>0.0219209725568389</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02187296602691863</v>
+        <v>0.0219209725568389</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02187296602691863</v>
+        <v>0.0219209725568389</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02187296602691863</v>
+        <v>0.0219209725568389</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02187296602691863</v>
+        <v>0.0219209725568389</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.03022036719281468</v>
+        <v>-0.02996448417457936</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01372616435704657</v>
+        <v>0.01375852624634105</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01372616435704657</v>
+        <v>0.01375852624634105</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01372616435704657</v>
+        <v>0.01375852624634105</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01372616435704657</v>
+        <v>0.01375852624634105</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.003848070969922839</v>
+        <v>-0.001353948198190423</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>0.005824278184971127</v>
+        <v>0.005849140361965613</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.01709934221997369</v>
+        <v>-0.01003553665742146</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.004826509345060373</v>
+        <v>0.004825716577028663</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.01788991165959646</v>
+        <v>-0.00605616053024642</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.02560923116836924</v>
+        <v>0.0191956674238267</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02560923116836924</v>
+        <v>0.0191956674238267</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.02560923116836924</v>
+        <v>0.0191956674238267</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.02560923116836924</v>
+        <v>0.0191956674238267</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.02560923116836924</v>
+        <v>0.0191956674238267</v>
       </c>
     </row>
     <row r="11">
@@ -1383,87 +1383,87 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01447756406710256</v>
+        <v>0.01810523813220952</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.002448652524069575</v>
+        <v>0.007627171025086841</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>-0.001790596199623848</v>
+        <v>-0.001790708231628329</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003381615495264619</v>
+        <v>0.0006174798006991919</v>
       </c>
       <c r="H11" t="n">
         <v>-0.001071932202877288</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00346226951449078</v>
+        <v>0.008730098077203921</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.006391407430098836</v>
+        <v>-0.005149100326614501</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001092002635680105</v>
+        <v>-0.001421418968856759</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.001092002635680105</v>
+        <v>-0.001421418968856759</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.001092002635680105</v>
+        <v>-0.001421418968856759</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.001092002635680105</v>
+        <v>-0.001421418968856759</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.001092002635680105</v>
+        <v>-0.001421418968856759</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.002025006705000268</v>
+        <v>-0.002008707344348294</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.002418283200731328</v>
+        <v>-0.00319211475168459</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.002418283200731328</v>
+        <v>-0.00319211475168459</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.002418283200731328</v>
+        <v>-0.00319211475168459</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.002418283200731328</v>
+        <v>-0.00319211475168459</v>
       </c>
       <c r="U11" t="n">
-        <v>0.003411877960475118</v>
+        <v>0.006597715944066983</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>0.01837698697507947</v>
+        <v>0.01836895081475803</v>
       </c>
       <c r="X11" t="n">
-        <v>0.007299077379963094</v>
+        <v>0.008870991618839663</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.01424356280974251</v>
+        <v>-0.01424320290572811</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.005214577456583097</v>
+        <v>0.002973840118953605</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.005967917230716688</v>
+        <v>-0.00887505078700203</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.005967917230716688</v>
+        <v>-0.00887505078700203</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.005967917230716688</v>
+        <v>-0.00887505078700203</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.005967917230716688</v>
+        <v>-0.00887505078700203</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.005967917230716688</v>
+        <v>-0.00887505078700203</v>
       </c>
     </row>
     <row r="12">
@@ -1478,87 +1478,87 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.112314724492589</v>
+        <v>0.09969910881996433</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008833790403015298</v>
+        <v>-0.004942293317691732</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>-0.01178767122350685</v>
+        <v>-0.01178867298354692</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01197031583881263</v>
+        <v>0.01238266580730663</v>
       </c>
       <c r="H12" t="n">
         <v>0.01309334375573375</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01068113572324543</v>
+        <v>0.003578252207130088</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.008818004281608718</v>
+        <v>-0.0286308661853345</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01236533233461329</v>
+        <v>0.01189987065199482</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01236533233461329</v>
+        <v>0.01189987065199482</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01236533233461329</v>
+        <v>0.01189987065199482</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01236533233461329</v>
+        <v>0.01189987065199482</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01236533233461329</v>
+        <v>0.01189987065199482</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01166861067474443</v>
+        <v>-0.01198640707145628</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01097050200682008</v>
+        <v>0.01004867291394692</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01097050200682008</v>
+        <v>0.01004867291394692</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01097050200682008</v>
+        <v>0.01004867291394692</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01097050200682008</v>
+        <v>0.01004867291394692</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1037620091744803</v>
+        <v>0.09906847918111682</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>0.02830404631616185</v>
+        <v>0.02836627140665085</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.007150051966002078</v>
+        <v>-0.01300373351214934</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01068090839523633</v>
+        <v>0.01067973825118953</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.02348594330743773</v>
+        <v>-0.01023100533724021</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01207106832284273</v>
+        <v>0.01511509356460374</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01207106832284273</v>
+        <v>0.01511509356460374</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01207106832284273</v>
+        <v>0.01511509356460374</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01207106832284273</v>
+        <v>0.01511509356460374</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.01207106832284273</v>
+        <v>0.01511509356460374</v>
       </c>
     </row>
     <row r="13">
@@ -1569,87 +1569,87 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.4826968617718744</v>
+        <v>-0.4509245583249822</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01931166266297835</v>
+        <v>-0.002908193588327743</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>-0.01724947172997887</v>
+        <v>-0.01724673419386937</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01900533157621326</v>
+        <v>0.01927422201896888</v>
       </c>
       <c r="H13" t="n">
         <v>0.01952371537294861</v>
       </c>
       <c r="I13" t="n">
-        <v>0.008806586176263446</v>
+        <v>0.001066934442677378</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.002175554009215119</v>
+        <v>-0.01454006350202984</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01674647078185883</v>
+        <v>0.01660424312816972</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01674647078185883</v>
+        <v>0.01660424312816972</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01674647078185883</v>
+        <v>0.01660424312816972</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01674647078185883</v>
+        <v>0.01660424312816972</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01674647078185883</v>
+        <v>0.01660424312816972</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01725086574603463</v>
+        <v>-0.01747215410688616</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01700107776804311</v>
+        <v>0.01641982203279288</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01700107776804311</v>
+        <v>0.01641982203279288</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01700107776804311</v>
+        <v>0.01641982203279288</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01700107776804311</v>
+        <v>0.01641982203279288</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.06604248648169946</v>
+        <v>-0.07259769621765019</v>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>-0.009640533313621332</v>
+        <v>-0.009586298111451922</v>
       </c>
       <c r="X13" t="n">
-        <v>0.007577442735097709</v>
+        <v>0.002490714339628573</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0127554426542177</v>
+        <v>0.01275411679816467</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.001009058344362334</v>
+        <v>0.008967321382692853</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.003013612440544497</v>
+        <v>0.004114479908579196</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.003013612440544497</v>
+        <v>0.004114479908579196</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.003013612440544497</v>
+        <v>0.004114479908579196</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.003013612440544497</v>
+        <v>0.004114479908579196</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.003013612440544497</v>
+        <v>0.004114479908579196</v>
       </c>
     </row>
     <row r="14">
@@ -1664,87 +1664,87 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.01024549298581972</v>
+        <v>-0.01969963518798541</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01140432945258012</v>
+        <v>-0.03053229702929188</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>-0.007051318074052722</v>
+        <v>-0.007051272186050886</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008768703902748155</v>
+        <v>0.007442960073718401</v>
       </c>
       <c r="H14" t="n">
         <v>0.0074490650019626</v>
       </c>
       <c r="I14" t="n">
-        <v>0.001475919227036769</v>
+        <v>-0.01870829786833191</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.02396840411889631</v>
+        <v>0.005693195997292409</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0009265069810602791</v>
+        <v>0.002137764661510586</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0009265069810602791</v>
+        <v>0.002137764661510586</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0009265069810602791</v>
+        <v>0.002137764661510586</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0009265069810602791</v>
+        <v>0.002137764661510586</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0009265069810602791</v>
+        <v>0.002137764661510586</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.008412972624518905</v>
+        <v>-0.007527340237093608</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.004077362851094514</v>
+        <v>-0.001856561930262477</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.004077362851094514</v>
+        <v>-0.001856561930262477</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.004077362851094514</v>
+        <v>-0.001856561930262477</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.004077362851094514</v>
+        <v>-0.001856561930262477</v>
       </c>
       <c r="U14" t="n">
-        <v>0.002067990322719613</v>
+        <v>0.002692344875758411</v>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>-0.0001637754305510172</v>
+        <v>-0.0001483543739341749</v>
       </c>
       <c r="X14" t="n">
-        <v>0.005331407925256317</v>
+        <v>0.009514508444580336</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.003784722487388899</v>
+        <v>-0.003784385335375413</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.0005128796365151854</v>
+        <v>-0.01275607414224296</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.003886640219465608</v>
+        <v>-0.006237376377495055</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.003886640219465608</v>
+        <v>-0.006237376377495055</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.003886640219465608</v>
+        <v>-0.006237376377495055</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.003886640219465608</v>
+        <v>-0.006237376377495055</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.003886640219465608</v>
+        <v>-0.006237376377495055</v>
       </c>
     </row>
     <row r="15">
@@ -1759,87 +1759,87 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.0001000340200013608</v>
+        <v>0.00049058325162333</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01758883332122668</v>
+        <v>0.002746113805844552</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>-0.006174142230965689</v>
+        <v>-0.00617382725495309</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005309926196397047</v>
+        <v>0.005791300359652013</v>
       </c>
       <c r="H15" t="n">
         <v>0.005684687939387516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01606174153846966</v>
+        <v>0.01110231394809256</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.009466620772207184</v>
+        <v>-0.007596459100620415</v>
       </c>
       <c r="K15" t="n">
-        <v>0.008597774359910975</v>
+        <v>0.008316471980658879</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008597774359910975</v>
+        <v>0.008316471980658879</v>
       </c>
       <c r="M15" t="n">
-        <v>0.008597774359910975</v>
+        <v>0.008316471980658879</v>
       </c>
       <c r="N15" t="n">
-        <v>0.008597774359910975</v>
+        <v>0.008316471980658879</v>
       </c>
       <c r="O15" t="n">
-        <v>0.008597774359910975</v>
+        <v>0.008316471980658879</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.005622773024910921</v>
+        <v>-0.005948163309926531</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01033612937344517</v>
+        <v>0.0100593350583734</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01033612937344517</v>
+        <v>0.0100593350583734</v>
       </c>
       <c r="S15" t="n">
-        <v>0.01033612937344517</v>
+        <v>0.0100593350583734</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01033612937344517</v>
+        <v>0.0100593350583734</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.01308060599522424</v>
+        <v>-0.01049970037224001</v>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>0.002647462857898514</v>
+        <v>0.002615175272607011</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.008141320357652814</v>
+        <v>0.001351273590050943</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.001504486524179461</v>
+        <v>0.001504612284184491</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.002705885964235438</v>
+        <v>0.009036895273475809</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.009380058615202342</v>
+        <v>0.004283962827358512</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.009380058615202342</v>
+        <v>0.004283962827358512</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.009380058615202342</v>
+        <v>0.004283962827358512</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.009380058615202342</v>
+        <v>0.004283962827358512</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.009380058615202342</v>
+        <v>0.004283962827358512</v>
       </c>
     </row>
     <row r="16">
@@ -1854,87 +1854,87 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.009686986947479477</v>
+        <v>0.006747957197918287</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02448276890304231</v>
+        <v>-0.004229653321186132</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>-0.003007499544299982</v>
+        <v>-0.003009187128367485</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004715522396620895</v>
+        <v>0.004308301228332048</v>
       </c>
       <c r="H16" t="n">
         <v>0.004056001122240045</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.02460344152813766</v>
+        <v>-0.01611475869259034</v>
       </c>
       <c r="J16" t="n">
-        <v>0.008198814624216989</v>
+        <v>-0.01448138978758432</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01798606036744241</v>
+        <v>0.01865071015402841</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01798606036744241</v>
+        <v>0.01865071015402841</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01798606036744241</v>
+        <v>0.01865071015402841</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01798606036744241</v>
+        <v>0.01865071015402841</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01798606036744241</v>
+        <v>0.01865071015402841</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.001688698147547926</v>
+        <v>-0.001408015448320618</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02652251088490043</v>
+        <v>0.02816518327060732</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02652251088490043</v>
+        <v>0.02816518327060732</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02652251088490043</v>
+        <v>0.02816518327060732</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02652251088490043</v>
+        <v>0.02816518327060732</v>
       </c>
       <c r="U16" t="n">
-        <v>0.006896385971855437</v>
+        <v>0.0030388067296252</v>
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>0.01410950302838012</v>
+        <v>0.01412234869289395</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.00816248231049929</v>
+        <v>-0.01141968448878738</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.00116841326273653</v>
+        <v>0.001170574030822961</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.02644972454598897</v>
+        <v>-0.01501123567244942</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01027222725888909</v>
+        <v>0.01062148669685947</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01027222725888909</v>
+        <v>0.01062148669685947</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.01027222725888909</v>
+        <v>0.01062148669685947</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.01027222725888909</v>
+        <v>0.01062148669685947</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.01027222725888909</v>
+        <v>0.01062148669685947</v>
       </c>
     </row>
     <row r="17">
@@ -1949,87 +1949,87 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.005337348405493936</v>
+        <v>-0.0008313696332547853</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01591953154687754</v>
+        <v>0.001087392523495701</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>-0.006032465137298604</v>
+        <v>-0.006032042929281716</v>
       </c>
       <c r="G17" t="n">
-        <v>0.005889998635599945</v>
+        <v>0.005566316094652643</v>
       </c>
       <c r="H17" t="n">
         <v>0.008068310050732401</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01225758029830321</v>
+        <v>-0.007696754323870172</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01597152219096018</v>
+        <v>0.0005061465330961874</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001719015428760617</v>
+        <v>0.001862357834494313</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001719015428760617</v>
+        <v>0.001862357834494313</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001719015428760617</v>
+        <v>0.001862357834494313</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001719015428760617</v>
+        <v>0.001862357834494313</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001719015428760617</v>
+        <v>0.001862357834494313</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.006439082081563282</v>
+        <v>-0.006254499706179987</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.001467390682695627</v>
+        <v>-0.0009193013167720526</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.001467390682695627</v>
+        <v>-0.0009193013167720526</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.001467390682695627</v>
+        <v>-0.0009193013167720526</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.001467390682695627</v>
+        <v>-0.0009193013167720526</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02333792704551708</v>
+        <v>0.02851224330117403</v>
       </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>0.01908876873155075</v>
+        <v>0.01910042466801698</v>
       </c>
       <c r="X17" t="n">
-        <v>0.006387250719490028</v>
+        <v>0.02244623849784954</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01156044468641779</v>
+        <v>0.01156087102243484</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.0002737436269497451</v>
+        <v>0.00894046701361868</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0013095850123834</v>
+        <v>-0.008991044999641798</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0013095850123834</v>
+        <v>-0.008991044999641798</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0013095850123834</v>
+        <v>-0.008991044999641798</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.0013095850123834</v>
+        <v>-0.008991044999641798</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0013095850123834</v>
+        <v>-0.008991044999641798</v>
       </c>
     </row>
     <row r="18">
@@ -2040,87 +2040,87 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.00479918851196754</v>
+        <v>-0.00649382176375287</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02123518598048389</v>
+        <v>1.123824044952962e-05</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>-0.01226138045845522</v>
+        <v>-0.01226184413847376</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01774278531771141</v>
+        <v>0.0172743701949748</v>
       </c>
       <c r="H18" t="n">
         <v>0.017880824971233</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.001274551058982042</v>
+        <v>-0.001580172831206913</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.008172556175140183</v>
+        <v>0.002019106500156359</v>
       </c>
       <c r="K18" t="n">
-        <v>0.009370893590835743</v>
+        <v>0.009667006754680268</v>
       </c>
       <c r="L18" t="n">
-        <v>0.009370893590835743</v>
+        <v>0.009667006754680268</v>
       </c>
       <c r="M18" t="n">
-        <v>0.009370893590835743</v>
+        <v>0.009667006754680268</v>
       </c>
       <c r="N18" t="n">
-        <v>0.009370893590835743</v>
+        <v>0.009667006754680268</v>
       </c>
       <c r="O18" t="n">
-        <v>0.009370893590835743</v>
+        <v>0.009667006754680268</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01461803271272131</v>
+        <v>-0.01436906841476274</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.005835487433419497</v>
+        <v>0.006293785787751431</v>
       </c>
       <c r="R18" t="n">
-        <v>0.005835487433419497</v>
+        <v>0.006293785787751431</v>
       </c>
       <c r="S18" t="n">
-        <v>0.005835487433419497</v>
+        <v>0.006293785787751431</v>
       </c>
       <c r="T18" t="n">
-        <v>0.005835487433419497</v>
+        <v>0.006293785787751431</v>
       </c>
       <c r="U18" t="n">
-        <v>0.006773074638922984</v>
+        <v>0.0062041400243145</v>
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>-0.01218676282347051</v>
+        <v>-0.01218789168751567</v>
       </c>
       <c r="X18" t="n">
-        <v>0.008899023619960944</v>
+        <v>0.01172047083681883</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.03970474469218978</v>
+        <v>0.03970264718810588</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0234741551789662</v>
+        <v>0.02346729588269183</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.001706642372265695</v>
+        <v>0.001511091420443657</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.001706642372265695</v>
+        <v>0.001511091420443657</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.001706642372265695</v>
+        <v>0.001511091420443657</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.001706642372265695</v>
+        <v>0.001511091420443657</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.001706642372265695</v>
+        <v>0.001511091420443657</v>
       </c>
     </row>
     <row r="19">
@@ -2135,87 +2135,87 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.001072914186916567</v>
+        <v>0.003362152550486102</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0291534984359204</v>
+        <v>0.005544996989799878</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>-0.01648252088330083</v>
+        <v>-0.01647914897916596</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01447222358688894</v>
+        <v>0.01497369400694776</v>
       </c>
       <c r="H19" t="n">
         <v>0.01502727324109093</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01426465170658607</v>
+        <v>0.01750272050810881</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.002370112609193578</v>
+        <v>-0.0159206911115744</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01098327096733084</v>
+        <v>0.01030659977226399</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01098327096733084</v>
+        <v>0.01030659977226399</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01098327096733084</v>
+        <v>0.01030659977226399</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01098327096733084</v>
+        <v>0.01030659977226399</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01098327096733084</v>
+        <v>0.01030659977226399</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01603699033747961</v>
+        <v>-0.01627616685904667</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.004709144060365761</v>
+        <v>0.002980425911217036</v>
       </c>
       <c r="R19" t="n">
-        <v>0.004709144060365761</v>
+        <v>0.002980425911217036</v>
       </c>
       <c r="S19" t="n">
-        <v>0.004709144060365761</v>
+        <v>0.002980425911217036</v>
       </c>
       <c r="T19" t="n">
-        <v>0.004709144060365761</v>
+        <v>0.002980425911217036</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.02039031643161265</v>
+        <v>-0.02732836078979031</v>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>0.00696901026276041</v>
+        <v>0.006953656502146259</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.002473999106959964</v>
+        <v>-0.02206381893055276</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.008200182472007298</v>
+        <v>-0.008198073159922924</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.00441623201664928</v>
+        <v>-0.009723768676950746</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.00607689873907595</v>
+        <v>0.01864844608993784</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.00607689873907595</v>
+        <v>0.01864844608993784</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.00607689873907595</v>
+        <v>0.01864844608993784</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.00607689873907595</v>
+        <v>0.01864844608993784</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.00607689873907595</v>
+        <v>0.01864844608993784</v>
       </c>
     </row>
     <row r="20">
@@ -2230,87 +2230,87 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01347615970704638</v>
+        <v>-0.01191972614078905</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.000972314699809985</v>
+        <v>-0.0007818678072747121</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>-0.01435764220630569</v>
+        <v>-0.01435866739034669</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01488455531538221</v>
+        <v>0.0149357125654285</v>
       </c>
       <c r="H20" t="n">
         <v>0.01584765816990633</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005986771631470864</v>
+        <v>0.005443907545756301</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01180669805216907</v>
+        <v>-8.657457960842846e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.006450281730011269</v>
+        <v>0.00629648473185939</v>
       </c>
       <c r="L20" t="n">
-        <v>0.006450281730011269</v>
+        <v>0.00629648473185939</v>
       </c>
       <c r="M20" t="n">
-        <v>0.006450281730011269</v>
+        <v>0.00629648473185939</v>
       </c>
       <c r="N20" t="n">
-        <v>0.006450281730011269</v>
+        <v>0.00629648473185939</v>
       </c>
       <c r="O20" t="n">
-        <v>0.006450281730011269</v>
+        <v>0.00629648473185939</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.01540078160803126</v>
+        <v>-0.0153818825672753</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.0005580818143232725</v>
+        <v>-0.0004331198573247943</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.0005580818143232725</v>
+        <v>-0.0004331198573247943</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.0005580818143232725</v>
+        <v>-0.0004331198573247943</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.0005580818143232725</v>
+        <v>-0.0004331198573247943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01899849589593983</v>
+        <v>0.01991771508518663</v>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>0.006263209306528371</v>
+        <v>0.006249415833976632</v>
       </c>
       <c r="X20" t="n">
-        <v>0.006478496611139864</v>
+        <v>0.004932453893298156</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.014574650118986</v>
+        <v>0.01457264717490588</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.001272423122896925</v>
+        <v>0.003093453723738149</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0003030727801229111</v>
+        <v>0.0009464988858599552</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0003030727801229111</v>
+        <v>0.0009464988858599552</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0003030727801229111</v>
+        <v>0.0009464988858599552</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0003030727801229111</v>
+        <v>0.0009464988858599552</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0003030727801229111</v>
+        <v>0.0009464988858599552</v>
       </c>
     </row>
     <row r="21">
@@ -2321,87 +2321,87 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.01854691782987671</v>
+        <v>-0.01869116215564648</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.009317774127266412</v>
+        <v>0.002703635724145429</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>-0.01573642670945707</v>
+        <v>-0.01573545672541827</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01349759055590362</v>
+        <v>0.01395645329425813</v>
       </c>
       <c r="H21" t="n">
         <v>0.01596776022271041</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02609431649977265</v>
+        <v>0.01924330521773221</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.01372100393867093</v>
+        <v>-0.02266382062462804</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01623721274548851</v>
+        <v>0.01584654159386166</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01623721274548851</v>
+        <v>0.01584654159386166</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01623721274548851</v>
+        <v>0.01584654159386166</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01623721274548851</v>
+        <v>0.01584654159386166</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01623721274548851</v>
+        <v>0.01584654159386166</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.01498673167146927</v>
+        <v>-0.01520350236814009</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01511833663673346</v>
+        <v>0.01458498355939934</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01511833663673346</v>
+        <v>0.01458498355939934</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01511833663673346</v>
+        <v>0.01458498355939934</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01511833663673346</v>
+        <v>0.01458498355939934</v>
       </c>
       <c r="U21" t="n">
-        <v>0.024529975125199</v>
+        <v>0.01455769603865723</v>
       </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>0.003954751454190057</v>
+        <v>0.003954263966170558</v>
       </c>
       <c r="X21" t="n">
-        <v>0.0003408443656337746</v>
+        <v>-0.01926344141053766</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.0103644024305761</v>
+        <v>0.01036382643055305</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.004902685156107405</v>
+        <v>0.001422841880913675</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.01044360521774421</v>
+        <v>0.02231851308474052</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.01044360521774421</v>
+        <v>0.02231851308474052</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.01044360521774421</v>
+        <v>0.02231851308474052</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.01044360521774421</v>
+        <v>0.02231851308474052</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.01044360521774421</v>
+        <v>0.02231851308474052</v>
       </c>
     </row>
     <row r="22">
@@ -2412,87 +2412,87 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02412008976480359</v>
+        <v>-0.02518040347121613</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01177587580064299</v>
+        <v>-0.007685123731404949</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.002411524608460984</v>
+        <v>0.002413399872535995</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.000511153652446146</v>
+        <v>-0.0002566278822651152</v>
       </c>
       <c r="H22" t="n">
         <v>-0.002924413364976535</v>
       </c>
       <c r="I22" t="n">
-        <v>3.071404922856197e-05</v>
+        <v>-0.008865450978618038</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00105368831520965</v>
+        <v>-0.01847073955386042</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.01856201450248058</v>
+        <v>-0.01912118994884759</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.01856201450248058</v>
+        <v>-0.01912118994884759</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.01856201450248058</v>
+        <v>-0.01912118994884759</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.01856201450248058</v>
+        <v>-0.01912118994884759</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.01856201450248058</v>
+        <v>-0.01912118994884759</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.0003214336448573457</v>
+        <v>-0.0003533483661339347</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.0292673574906943</v>
+        <v>-0.0304108875524355</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.0292673574906943</v>
+        <v>-0.0304108875524355</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.0292673574906943</v>
+        <v>-0.0304108875524355</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.0292673574906943</v>
+        <v>-0.0304108875524355</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0197853601194144</v>
+        <v>0.01607826707551656</v>
       </c>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>0.001630547585221903</v>
+        <v>0.001594332927773317</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.009649938913997555</v>
+        <v>-0.01331001672440067</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.002329811037192441</v>
+        <v>-0.002327976861119074</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.009915900588636022</v>
+        <v>-0.01405260805010432</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.004986074599442983</v>
+        <v>0.006867779410711176</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.004986074599442983</v>
+        <v>0.006867779410711176</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.004986074599442983</v>
+        <v>0.006867779410711176</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.004986074599442983</v>
+        <v>0.006867779410711176</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.004986074599442983</v>
+        <v>0.006867779410711176</v>
       </c>
     </row>
     <row r="23">
@@ -2503,87 +2503,87 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.003176231935049277</v>
+        <v>0.002114730324589213</v>
       </c>
       <c r="D23" t="n">
-        <v>0.005225977951689979</v>
+        <v>-0.001372140150885606</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>0.00916873428674937</v>
+        <v>0.009167024622680984</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.009204344432173777</v>
+        <v>-0.008833688225347528</v>
       </c>
       <c r="H23" t="n">
         <v>-0.01048538873941555</v>
       </c>
       <c r="I23" t="n">
-        <v>0.004134779973391198</v>
+        <v>-0.001675557187022287</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.02519969191338896</v>
+        <v>-0.01065253940399784</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.009697480707899227</v>
+        <v>-0.009785861959434478</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.009697480707899227</v>
+        <v>-0.009785861959434478</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.009697480707899227</v>
+        <v>-0.009785861959434478</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.009697480707899227</v>
+        <v>-0.009785861959434478</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.009697480707899227</v>
+        <v>-0.009785861959434478</v>
       </c>
       <c r="P23" t="n">
-        <v>0.008726273821050951</v>
+        <v>0.008460020690400827</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.007895801499832059</v>
+        <v>-0.008151919430076777</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.007895801499832059</v>
+        <v>-0.008151919430076777</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.007895801499832059</v>
+        <v>-0.008151919430076777</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.007895801499832059</v>
+        <v>-0.008151919430076777</v>
       </c>
       <c r="U23" t="n">
-        <v>0.00679764852790594</v>
+        <v>0.008986755143685887</v>
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>-0.002220603448824137</v>
+        <v>-0.002247560153902406</v>
       </c>
       <c r="X23" t="n">
-        <v>0.000555959350238374</v>
+        <v>0.002766690830667633</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.007362674502506979</v>
+        <v>-0.007362892806515712</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.02183113853724554</v>
+        <v>0.0008447902417916095</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.001645737089829483</v>
+        <v>-0.003810408920416356</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.001645737089829483</v>
+        <v>-0.003810408920416356</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.001645737089829483</v>
+        <v>-0.003810408920416356</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.001645737089829483</v>
+        <v>-0.003810408920416356</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.001645737089829483</v>
+        <v>-0.003810408920416356</v>
       </c>
     </row>
     <row r="24">
@@ -2598,87 +2598,87 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01883104222524168</v>
+        <v>-0.01230504865220195</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.01076727863133654</v>
+        <v>0.01651558885262355</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>-0.007429432425177296</v>
+        <v>-0.007428013161120526</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008131935205277408</v>
+        <v>0.008520226228809047</v>
       </c>
       <c r="H24" t="n">
         <v>0.007708004468320179</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.003702369940094797</v>
+        <v>0.01419436472777459</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01373297950716202</v>
+        <v>-0.002976377548055416</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01154364430174577</v>
+        <v>0.01096631304665252</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01154364430174577</v>
+        <v>0.01096631304665252</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01154364430174577</v>
+        <v>0.01096631304665252</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01154364430174577</v>
+        <v>0.01096631304665252</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01154364430174577</v>
+        <v>0.01096631304665252</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.007214300736572028</v>
+        <v>-0.007436904105476163</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01351918527676741</v>
+        <v>0.01248390942735638</v>
       </c>
       <c r="R24" t="n">
-        <v>0.01351918527676741</v>
+        <v>0.01248390942735638</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01351918527676741</v>
+        <v>0.01248390942735638</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01351918527676741</v>
+        <v>0.01248390942735638</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01964967716998708</v>
+        <v>0.0249315684378611</v>
       </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>0.006859687666387506</v>
+        <v>0.0068610524984421</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.009378323415132936</v>
+        <v>-0.005711292996451718</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.01078384900735396</v>
+        <v>0.01078364145534566</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.01164527979381119</v>
+        <v>0.002005199696207988</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.01229798420391937</v>
+        <v>0.00762560276902411</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.01229798420391937</v>
+        <v>0.00762560276902411</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01229798420391937</v>
+        <v>0.00762560276902411</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.01229798420391937</v>
+        <v>0.00762560276902411</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.01229798420391937</v>
+        <v>0.00762560276902411</v>
       </c>
     </row>
     <row r="25">
@@ -2689,87 +2689,87 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.01210656730026269</v>
+        <v>-0.01488349528333981</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01528328444828798</v>
+        <v>-0.02022354388094175</v>
       </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>-0.02210722130028885</v>
+        <v>-0.02210615282024611</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02465845682633827</v>
+        <v>0.0234986700279468</v>
       </c>
       <c r="H25" t="n">
         <v>0.02447870469114818</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02291548910861956</v>
+        <v>-0.0008306902412276094</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.02093567226653005</v>
+        <v>-0.002749748130609502</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0180866401474656</v>
+        <v>0.01916914847876594</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0180866401474656</v>
+        <v>0.01916914847876594</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0180866401474656</v>
+        <v>0.01916914847876594</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0180866401474656</v>
+        <v>0.01916914847876594</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0180866401474656</v>
+        <v>0.01916914847876594</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02360075633603025</v>
+        <v>-0.02292151637286065</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01245723467428939</v>
+        <v>0.01403220728128829</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01245723467428939</v>
+        <v>0.01403220728128829</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01245723467428939</v>
+        <v>0.01403220728128829</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01245723467428939</v>
+        <v>0.01403220728128829</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.003900602172024086</v>
+        <v>0.005121348876976867</v>
       </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>0.01788284193131368</v>
+        <v>0.01789601610784064</v>
       </c>
       <c r="X25" t="n">
-        <v>-0.01928291241931649</v>
+        <v>0.00356232225449289</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.01503481279339251</v>
+        <v>0.01503642597745704</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.003664760306590412</v>
+        <v>-0.009983924751356989</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.02087816157112646</v>
+        <v>0.008486739987469597</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.02087816157112646</v>
+        <v>0.008486739987469597</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.02087816157112646</v>
+        <v>0.008486739987469597</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.02087816157112646</v>
+        <v>0.008486739987469597</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.02087816157112646</v>
+        <v>0.008486739987469597</v>
       </c>
     </row>
     <row r="26">
@@ -2784,87 +2784,87 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.02041182715247308</v>
+        <v>0.01295984279039371</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.02855260331681135</v>
+        <v>-0.01490230658009226</v>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>-0.018761150094446</v>
+        <v>-0.01876065060642602</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01914158610966344</v>
+        <v>0.0182169650486786</v>
       </c>
       <c r="H26" t="n">
         <v>0.02160733478429339</v>
       </c>
       <c r="I26" t="n">
-        <v>0.007838309881532394</v>
+        <v>-0.007146379677855186</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.009909720070377799</v>
+        <v>-0.00600208517816691</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01468284461931378</v>
+        <v>0.01546246727449869</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01468284461931378</v>
+        <v>0.01546246727449869</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01468284461931378</v>
+        <v>0.01546246727449869</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01468284461931378</v>
+        <v>0.01546246727449869</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01468284461931378</v>
+        <v>0.01546246727449869</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.01910049062001962</v>
+        <v>-0.01844431696177267</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.00898074803922992</v>
+        <v>0.01032111622084465</v>
       </c>
       <c r="R26" t="n">
-        <v>0.00898074803922992</v>
+        <v>0.01032111622084465</v>
       </c>
       <c r="S26" t="n">
-        <v>0.00898074803922992</v>
+        <v>0.01032111622084465</v>
       </c>
       <c r="T26" t="n">
-        <v>0.00898074803922992</v>
+        <v>0.01032111622084465</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.02510290199611608</v>
+        <v>-0.02083659606596392</v>
       </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>-0.01732673579706943</v>
+        <v>-0.01733622040544881</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.02254483309379332</v>
+        <v>-0.008718574716742988</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.01781725184869007</v>
+        <v>0.01781767319270693</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.01195586947023478</v>
+        <v>-0.02636911055876442</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.02410911734836469</v>
+        <v>0.01765647517025901</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.02410911734836469</v>
+        <v>0.01765647517025901</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.02410911734836469</v>
+        <v>0.01765647517025901</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.02410911734836469</v>
+        <v>0.01765647517025901</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.02410911734836469</v>
+        <v>0.01765647517025901</v>
       </c>
     </row>
     <row r="27">
@@ -2875,87 +2875,87 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.004580365335214613</v>
+        <v>0.005341647477665898</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00973939382744669</v>
+        <v>0.01960177316807092</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>0.01349930146797206</v>
+        <v>0.01349850399594016</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01396716027068641</v>
+        <v>-0.0130692076267683</v>
       </c>
       <c r="H27" t="n">
         <v>-0.01450509610020384</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.003298287491931499</v>
+        <v>0.0122383325855333</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.01014795704014742</v>
+        <v>-0.00799616942128034</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.006452561922102476</v>
+        <v>-0.007011615928464636</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.006452561922102476</v>
+        <v>-0.007011615928464636</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.006452561922102476</v>
+        <v>-0.007011615928464636</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.006452561922102476</v>
+        <v>-0.007011615928464636</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.006452561922102476</v>
+        <v>-0.007011615928464636</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01499511093580443</v>
+        <v>0.01443446630537865</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.0008934037797361511</v>
+        <v>-0.001766803654672146</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.0008934037797361511</v>
+        <v>-0.001766803654672146</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.0008934037797361511</v>
+        <v>-0.001766803654672146</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0008934037797361511</v>
+        <v>-0.001766803654672146</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.009015455016618198</v>
+        <v>-0.008602549832308456</v>
       </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>0.01198218431928737</v>
+        <v>0.01196371199854848</v>
       </c>
       <c r="X27" t="n">
-        <v>0.001030565033222601</v>
+        <v>-0.001741396293655851</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.01035245849409834</v>
+        <v>-0.01034929020597161</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.0009928593037143718</v>
+        <v>0.005423216376928654</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.004715871932634876</v>
+        <v>-0.00167847625913905</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.004715871932634876</v>
+        <v>-0.00167847625913905</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.004715871932634876</v>
+        <v>-0.00167847625913905</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.004715871932634876</v>
+        <v>-0.00167847625913905</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.004715871932634876</v>
+        <v>-0.00167847625913905</v>
       </c>
     </row>
     <row r="28">
@@ -2970,87 +2970,87 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.006679045995161839</v>
+        <v>0.01360968947238758</v>
       </c>
       <c r="D28" t="n">
-        <v>0.009592790205630823</v>
+        <v>0.01176916271076651</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>0.02795559980622399</v>
+        <v>0.02795684195027368</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.02974572454982898</v>
+        <v>-0.02922340667293626</v>
       </c>
       <c r="H28" t="n">
         <v>-0.02523759172950367</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01626994049079762</v>
+        <v>0.01803662971346519</v>
       </c>
       <c r="J28" t="n">
-        <v>0.004656574030956788</v>
+        <v>0.01485666493922579</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.02369539419581576</v>
+        <v>-0.02413725168549007</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.02369539419581576</v>
+        <v>-0.02413725168549007</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.02369539419581576</v>
+        <v>-0.02413725168549007</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.02369539419581576</v>
+        <v>-0.02413725168549007</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.02369539419581576</v>
+        <v>-0.02413725168549007</v>
       </c>
       <c r="P28" t="n">
-        <v>0.02899752567190102</v>
+        <v>0.02867382085895283</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.0195809549912382</v>
+        <v>-0.02047028827481153</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.0195809549912382</v>
+        <v>-0.02047028827481153</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.0195809549912382</v>
+        <v>-0.02047028827481153</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.0195809549912382</v>
+        <v>-0.02047028827481153</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00497959354318374</v>
+        <v>0.003910641228519505</v>
       </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>0.9915876729755068</v>
+        <v>0.9915892239515688</v>
       </c>
       <c r="X28" t="n">
-        <v>0.001793483783739351</v>
+        <v>-0.003868384570735382</v>
       </c>
       <c r="Y28" t="n">
-        <v>-0.03886075086643003</v>
+        <v>-0.03886077438643097</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.02586901841076074</v>
+        <v>0.03598996348759854</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.03645783371431334</v>
+        <v>-0.03572355570094222</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.03645783371431334</v>
+        <v>-0.03572355570094222</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.03645783371431334</v>
+        <v>-0.03572355570094222</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.03645783371431334</v>
+        <v>-0.03572355570094222</v>
       </c>
       <c r="AE28" t="n">
-        <v>-0.03645783371431334</v>
+        <v>-0.03572355570094222</v>
       </c>
     </row>
     <row r="29">
@@ -3065,87 +3065,87 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.007183714079348562</v>
+        <v>0.0001122169964886798</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02016414997678363</v>
+        <v>-0.01346903641076145</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>0.01743201228128049</v>
+        <v>0.0174313676412547</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01862195325687813</v>
+        <v>-0.01935657351026294</v>
       </c>
       <c r="H29" t="n">
         <v>-0.01669819343592773</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02172934618117384</v>
+        <v>-0.02396170358246814</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01292246428992441</v>
+        <v>0.03251252492312204</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.02010410336416413</v>
+        <v>-0.01935860189434407</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.02010410336416413</v>
+        <v>-0.01935860189434407</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.02010410336416413</v>
+        <v>-0.01935860189434407</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.02010410336416413</v>
+        <v>-0.01935860189434407</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.02010410336416413</v>
+        <v>-0.01935860189434407</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01684781078591243</v>
+        <v>0.01748603676344147</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.01960356443214257</v>
+        <v>-0.01845766441830658</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.01960356443214257</v>
+        <v>-0.01845766441830658</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.01960356443214257</v>
+        <v>-0.01845766441830658</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.01960356443214257</v>
+        <v>-0.01845766441830658</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.004267481738699269</v>
+        <v>-0.007093643035915968</v>
       </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="n">
-        <v>0.02120124449604978</v>
+        <v>0.0212123699364948</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01252896424515857</v>
+        <v>0.0149265626130625</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.001305189076207563</v>
+        <v>0.001302889876115595</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.00763982104159284</v>
+        <v>0.01309699549987982</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.01966729317069173</v>
+        <v>-0.01775084067803362</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.01966729317069173</v>
+        <v>-0.01775084067803362</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.01966729317069173</v>
+        <v>-0.01775084067803362</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.01966729317069173</v>
+        <v>-0.01775084067803362</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.01966729317069173</v>
+        <v>-0.01775084067803362</v>
       </c>
     </row>
     <row r="30">
@@ -3160,87 +3160,87 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.007853525594141023</v>
+        <v>-0.01531221574848863</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.006829027616108967</v>
+        <v>-0.02053317413332696</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>0.01444326403373056</v>
+        <v>0.01444127433765097</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01625579287423171</v>
+        <v>-0.01722607268904291</v>
       </c>
       <c r="H30" t="n">
         <v>-0.01741705836068233</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.00719451052778042</v>
+        <v>-0.02350465428418617</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.02391040629251794</v>
+        <v>-0.005330710734184023</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.007424818472992738</v>
+        <v>-0.006360488126419523</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.007424818472992738</v>
+        <v>-0.006360488126419523</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.007424818472992738</v>
+        <v>-0.006360488126419523</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.007424818472992738</v>
+        <v>-0.006360488126419523</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.007424818472992738</v>
+        <v>-0.006360488126419523</v>
       </c>
       <c r="P30" t="n">
-        <v>0.0161525400701016</v>
+        <v>0.01682716281708651</v>
       </c>
       <c r="Q30" t="n">
-        <v>-0.0008644737945789516</v>
+        <v>0.001572404990896199</v>
       </c>
       <c r="R30" t="n">
-        <v>-0.0008644737945789516</v>
+        <v>0.001572404990896199</v>
       </c>
       <c r="S30" t="n">
-        <v>-0.0008644737945789516</v>
+        <v>0.001572404990896199</v>
       </c>
       <c r="T30" t="n">
-        <v>-0.0008644737945789516</v>
+        <v>0.001572404990896199</v>
       </c>
       <c r="U30" t="n">
-        <v>0.016015224928609</v>
+        <v>0.02031257394899046</v>
       </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="n">
-        <v>0.1101214677968587</v>
+        <v>0.1101099917643996</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.02127967592318703</v>
+        <v>-0.0103947549437902</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.02759040955161638</v>
+        <v>-0.02759121633564865</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.01881618180864727</v>
+        <v>-0.01798677479947099</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.007838209177528366</v>
+        <v>-0.001758102214324088</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.007838209177528366</v>
+        <v>-0.001758102214324088</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.007838209177528366</v>
+        <v>-0.001758102214324088</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.007838209177528366</v>
+        <v>-0.001758102214324088</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.007838209177528366</v>
+        <v>-0.001758102214324088</v>
       </c>
     </row>
     <row r="31">
@@ -3255,87 +3255,87 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.005825285513011419</v>
+        <v>-0.004236238633449544</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.009981704317090171</v>
+        <v>-0.002391382367655294</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>0.002408716320348653</v>
+        <v>0.002408774976350999</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.0001782633671305347</v>
+        <v>0.000286141451445658</v>
       </c>
       <c r="H31" t="n">
         <v>-0.003690063891602556</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02092876883715075</v>
+        <v>0.0128929825317193</v>
       </c>
       <c r="J31" t="n">
-        <v>0.01412229941112725</v>
+        <v>-0.009761446630857094</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0009125692205027686</v>
+        <v>-0.001140231213609248</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0009125692205027686</v>
+        <v>-0.001140231213609248</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0009125692205027686</v>
+        <v>-0.001140231213609248</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.0009125692205027686</v>
+        <v>-0.001140231213609248</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.0009125692205027686</v>
+        <v>-0.001140231213609248</v>
       </c>
       <c r="P31" t="n">
-        <v>0.002272157658886306</v>
+        <v>0.001861561226462449</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0003918299676731986</v>
+        <v>1.480732859229314e-05</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0003918299676731986</v>
+        <v>1.480732859229314e-05</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0003918299676731986</v>
+        <v>1.480732859229314e-05</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0003918299676731986</v>
+        <v>1.480732859229314e-05</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.00187774999511</v>
+        <v>-0.008842845329926042</v>
       </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="n">
-        <v>0.01071854874874195</v>
+        <v>0.01074921575796863</v>
       </c>
       <c r="X31" t="n">
-        <v>0.01220540218421609</v>
+        <v>-0.001512119484484779</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.008818403392736134</v>
+        <v>-0.008816976640679064</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.02224894850595794</v>
+        <v>0.00653469702938788</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.01382834320913373</v>
+        <v>-0.003990864639634585</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.01382834320913373</v>
+        <v>-0.003990864639634585</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.01382834320913373</v>
+        <v>-0.003990864639634585</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.01382834320913373</v>
+        <v>-0.003990864639634585</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.01382834320913373</v>
+        <v>-0.003990864639634585</v>
       </c>
     </row>
     <row r="32">
@@ -3350,87 +3350,87 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1536273207370928</v>
+        <v>0.1458779634991185</v>
       </c>
       <c r="D32" t="n">
-        <v>0.006127492054399775</v>
+        <v>-0.001273986386959456</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>-0.9999573468142937</v>
+        <v>-0.9999573361582933</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9904544074261761</v>
+        <v>0.9905971366798852</v>
       </c>
       <c r="H32" t="n">
         <v>0.9869956307758251</v>
       </c>
       <c r="I32" t="n">
-        <v>0.3651021386040855</v>
+        <v>0.2450002896080115</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.00836281066294214</v>
+        <v>-0.6120440128539943</v>
       </c>
       <c r="K32" t="n">
-        <v>0.933784705351388</v>
+        <v>0.9310201602168062</v>
       </c>
       <c r="L32" t="n">
-        <v>0.933784705351388</v>
+        <v>0.9310201602168062</v>
       </c>
       <c r="M32" t="n">
-        <v>0.933784705351388</v>
+        <v>0.9310201602168062</v>
       </c>
       <c r="N32" t="n">
-        <v>0.933784705351388</v>
+        <v>0.9310201602168062</v>
       </c>
       <c r="O32" t="n">
-        <v>0.933784705351388</v>
+        <v>0.9310201602168062</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.996746828861873</v>
+        <v>-0.9967771444150856</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.8034962318198492</v>
+        <v>0.7885932502637298</v>
       </c>
       <c r="R32" t="n">
-        <v>0.8034962318198492</v>
+        <v>0.7885932502637298</v>
       </c>
       <c r="S32" t="n">
-        <v>0.8034962318198492</v>
+        <v>0.7885932502637298</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8034962318198492</v>
+        <v>0.7885932502637298</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.2132172108326884</v>
+        <v>-0.2314915190412166</v>
       </c>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>-0.0224714549148582</v>
+        <v>-0.0223357975014319</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.6282413827936553</v>
+        <v>-0.6491377776455109</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.02857771160710846</v>
+        <v>0.02857808331912333</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.5278493906819756</v>
+        <v>-0.5946206976728278</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.8357073151882924</v>
+        <v>0.8582631079305242</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.8357073151882924</v>
+        <v>0.8582631079305242</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.8357073151882924</v>
+        <v>0.8582631079305242</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.8357073151882924</v>
+        <v>0.8582631079305242</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.8357073151882924</v>
+        <v>0.8582631079305242</v>
       </c>
     </row>
     <row r="33">
@@ -3445,87 +3445,87 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.01096005442240217</v>
+        <v>-0.01030808383632335</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01769340071980175</v>
+        <v>-0.003106481884259275</v>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>0.009489504955580196</v>
+        <v>0.009491405371656214</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.006801821936072876</v>
+        <v>-0.006592866599714663</v>
       </c>
       <c r="H33" t="n">
         <v>-0.006144108149764326</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01127884153915366</v>
+        <v>0.002551903302076132</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01910666247952601</v>
+        <v>0.006520415311770909</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.009978135567125422</v>
+        <v>-0.01031240978849639</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.009978135567125422</v>
+        <v>-0.01031240978849639</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.009978135567125422</v>
+        <v>-0.01031240978849639</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.009978135567125422</v>
+        <v>-0.01031240978849639</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.009978135567125422</v>
+        <v>-0.01031240978849639</v>
       </c>
       <c r="P33" t="n">
-        <v>0.00850308629212345</v>
+        <v>0.008247045065881801</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.01155913380636535</v>
+        <v>-0.01245967931438717</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.01155913380636535</v>
+        <v>-0.01245967931438717</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.01155913380636535</v>
+        <v>-0.01245967931438717</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.01155913380636535</v>
+        <v>-0.01245967931438717</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006098640435945616</v>
+        <v>0.003777799543202649</v>
       </c>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>0.009692909283716369</v>
+        <v>0.0097033675241347</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01556315793452632</v>
+        <v>0.01547393437895737</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.02070782530831301</v>
+        <v>0.02070782338831293</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.01045968531438741</v>
+        <v>0.01998656988746279</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.01519889887995595</v>
+        <v>-0.01737070571882823</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.01519889887995595</v>
+        <v>-0.01737070571882823</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.01519889887995595</v>
+        <v>-0.01737070571882823</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.01519889887995595</v>
+        <v>-0.01737070571882823</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.01519889887995595</v>
+        <v>-0.01737070571882823</v>
       </c>
     </row>
     <row r="34">
@@ -3540,87 +3540,87 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.002299399291975972</v>
+        <v>-0.0007488887339555493</v>
       </c>
       <c r="D34" t="n">
-        <v>0.005988005179627907</v>
+        <v>0.002479635075185403</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
-        <v>-0.003596190671847626</v>
+        <v>-0.003597456719898268</v>
       </c>
       <c r="G34" t="n">
-        <v>0.004165576678623066</v>
+        <v>0.004152897574115902</v>
       </c>
       <c r="H34" t="n">
         <v>0.00287552699502108</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01941549053661962</v>
+        <v>0.01341357404054296</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.001426974058517352</v>
+        <v>-0.002657372030759266</v>
       </c>
       <c r="K34" t="n">
-        <v>0.006260589754423589</v>
+        <v>0.006100860628034424</v>
       </c>
       <c r="L34" t="n">
-        <v>0.006260589754423589</v>
+        <v>0.006100860628034424</v>
       </c>
       <c r="M34" t="n">
-        <v>0.006260589754423589</v>
+        <v>0.006100860628034424</v>
       </c>
       <c r="N34" t="n">
-        <v>0.006260589754423589</v>
+        <v>0.006100860628034424</v>
       </c>
       <c r="O34" t="n">
-        <v>0.006260589754423589</v>
+        <v>0.006100860628034424</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.003476409835056393</v>
+        <v>-0.003528364077134562</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.007624867216994687</v>
+        <v>0.007836628441465135</v>
       </c>
       <c r="R34" t="n">
-        <v>0.007624867216994687</v>
+        <v>0.007836628441465135</v>
       </c>
       <c r="S34" t="n">
-        <v>0.007624867216994687</v>
+        <v>0.007836628441465135</v>
       </c>
       <c r="T34" t="n">
-        <v>0.007624867216994687</v>
+        <v>0.007836628441465135</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.02405362358614494</v>
+        <v>-0.02030846318082593</v>
       </c>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
-        <v>-0.01313057831722313</v>
+        <v>-0.01313522884540915</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.01142764173710567</v>
+        <v>-0.006674038346961533</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.0004177651367106054</v>
+        <v>0.0004204228968169158</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.002541147365645894</v>
+        <v>0.006583663943346556</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.01254789102991564</v>
+        <v>0.008797088127883525</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.01254789102991564</v>
+        <v>0.008797088127883525</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.01254789102991564</v>
+        <v>0.008797088127883525</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.01254789102991564</v>
+        <v>0.008797088127883525</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.01254789102991564</v>
+        <v>0.008797088127883525</v>
       </c>
     </row>
     <row r="35">
@@ -3635,87 +3635,87 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.02190030020401201</v>
+        <v>-0.01779678647187146</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.006785179244639795</v>
+        <v>0.007347835109913403</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>0.02715546444621858</v>
+        <v>0.0271571599022864</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02383269032930761</v>
+        <v>-0.02384641103385644</v>
       </c>
       <c r="H35" t="n">
         <v>-0.02476387635055505</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.01369360720374429</v>
+        <v>-0.00579710327188413</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.001205927329452668</v>
+        <v>0.01297258119669718</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3026863824114553</v>
+        <v>0.3084191637607665</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3026863824114553</v>
+        <v>0.3084191637607665</v>
       </c>
       <c r="M35" t="n">
-        <v>0.3026863824114553</v>
+        <v>0.3084191637607665</v>
       </c>
       <c r="N35" t="n">
-        <v>0.3026863824114553</v>
+        <v>0.3084191637607665</v>
       </c>
       <c r="O35" t="n">
-        <v>0.3026863824114553</v>
+        <v>0.3084191637607665</v>
       </c>
       <c r="P35" t="n">
-        <v>0.07410867810034712</v>
+        <v>0.07361483900859356</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.5130969796598792</v>
+        <v>0.5291558900622355</v>
       </c>
       <c r="R35" t="n">
-        <v>0.5130969796598792</v>
+        <v>0.5291558900622355</v>
       </c>
       <c r="S35" t="n">
-        <v>0.5130969796598792</v>
+        <v>0.5291558900622355</v>
       </c>
       <c r="T35" t="n">
-        <v>0.5130969796598792</v>
+        <v>0.5291558900622355</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02457200891888035</v>
+        <v>0.02339211410424598</v>
       </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="n">
-        <v>-0.0006560093062403722</v>
+        <v>-0.0006255702010228079</v>
       </c>
       <c r="X35" t="n">
-        <v>0.03048237395529495</v>
+        <v>0.02627075855483034</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.01237743063909722</v>
+        <v>0.01237830270313211</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.01285272358610894</v>
+        <v>0.02456251106250044</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.04458920520756819</v>
+        <v>0.0486127600565104</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.04458920520756819</v>
+        <v>0.0486127600565104</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.04458920520756819</v>
+        <v>0.0486127600565104</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.04458920520756819</v>
+        <v>0.0486127600565104</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.04458920520756819</v>
+        <v>0.0486127600565104</v>
       </c>
     </row>
     <row r="36">
@@ -3730,87 +3730,87 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.03227333716293348</v>
+        <v>-0.03190111654004466</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.003895878975674013</v>
+        <v>-0.005466936218677448</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>-0.01396994983879799</v>
+        <v>-0.01397041774281671</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01241679544067182</v>
+        <v>0.01189900953196038</v>
       </c>
       <c r="H36" t="n">
         <v>0.0153446123897845</v>
       </c>
       <c r="I36" t="n">
-        <v>0.009342924085716962</v>
+        <v>0.00241962201678488</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.009747835311739228</v>
+        <v>-0.00251307125674481</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01581931656877266</v>
+        <v>0.01653834565353382</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01581931656877266</v>
+        <v>0.01653834565353382</v>
       </c>
       <c r="M36" t="n">
-        <v>0.01581931656877266</v>
+        <v>0.01653834565353382</v>
       </c>
       <c r="N36" t="n">
-        <v>0.01581931656877266</v>
+        <v>0.01653834565353382</v>
       </c>
       <c r="O36" t="n">
-        <v>0.01581931656877266</v>
+        <v>0.01653834565353382</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.01317910833516433</v>
+        <v>-0.01301383607255344</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01681453814458152</v>
+        <v>0.01836469311858772</v>
       </c>
       <c r="R36" t="n">
-        <v>0.01681453814458152</v>
+        <v>0.01836469311858772</v>
       </c>
       <c r="S36" t="n">
-        <v>0.01681453814458152</v>
+        <v>0.01836469311858772</v>
       </c>
       <c r="T36" t="n">
-        <v>0.01681453814458152</v>
+        <v>0.01836469311858772</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02226984540279381</v>
+        <v>0.02163467894590639</v>
       </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="n">
-        <v>0.01623489463339578</v>
+        <v>0.01618697863147914</v>
       </c>
       <c r="X36" t="n">
-        <v>0.005152326158093045</v>
+        <v>-0.002194029879761195</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.01057698138307926</v>
+        <v>0.01057870151114806</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.004602334552093381</v>
+        <v>-0.008582097175283885</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.005798873223954928</v>
+        <v>0.008164431686577267</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.005798873223954928</v>
+        <v>0.008164431686577267</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.005798873223954928</v>
+        <v>0.008164431686577267</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.005798873223954928</v>
+        <v>0.008164431686577267</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.005798873223954928</v>
+        <v>0.008164431686577267</v>
       </c>
     </row>
     <row r="37">
@@ -3825,87 +3825,87 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.001268552786742111</v>
+        <v>0.004618597240743889</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.02148547080130467</v>
+        <v>0.01341683295267332</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
-        <v>-0.003340448389617935</v>
+        <v>-0.003340387333615493</v>
       </c>
       <c r="G37" t="n">
-        <v>0.003532700973308038</v>
+        <v>0.00414319974972799</v>
       </c>
       <c r="H37" t="n">
         <v>0.001163787598551504</v>
       </c>
       <c r="I37" t="n">
-        <v>0.008502606100104244</v>
+        <v>0.01627775306711012</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.02100204551725188</v>
+        <v>-0.007729962706184845</v>
       </c>
       <c r="K37" t="n">
-        <v>0.003723222676928907</v>
+        <v>0.003053531162141246</v>
       </c>
       <c r="L37" t="n">
-        <v>0.003723222676928907</v>
+        <v>0.003053531162141246</v>
       </c>
       <c r="M37" t="n">
-        <v>0.003723222676928907</v>
+        <v>0.003053531162141246</v>
       </c>
       <c r="N37" t="n">
-        <v>0.003723222676928907</v>
+        <v>0.003053531162141246</v>
       </c>
       <c r="O37" t="n">
-        <v>0.003723222676928907</v>
+        <v>0.003053531162141246</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.003543876237755049</v>
+        <v>-0.003865773658630946</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.005046368073854723</v>
+        <v>0.004041049793641991</v>
       </c>
       <c r="R37" t="n">
-        <v>0.005046368073854723</v>
+        <v>0.004041049793641991</v>
       </c>
       <c r="S37" t="n">
-        <v>0.005046368073854723</v>
+        <v>0.004041049793641991</v>
       </c>
       <c r="T37" t="n">
-        <v>0.005046368073854723</v>
+        <v>0.004041049793641991</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.006114251284570051</v>
+        <v>-0.007844849737982267</v>
       </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="n">
-        <v>-0.001547924413916976</v>
+        <v>-0.001486169915446797</v>
       </c>
       <c r="X37" t="n">
-        <v>0.004037950145518006</v>
+        <v>0.001624932736997309</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.01636277518251101</v>
+        <v>-0.01636385777455431</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.003617090064683603</v>
+        <v>0.01273560089342403</v>
       </c>
       <c r="AA37" t="n">
-        <v>-0.001184748143389926</v>
+        <v>-0.002953785334151413</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.001184748143389926</v>
+        <v>-0.002953785334151413</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.001184748143389926</v>
+        <v>-0.002953785334151413</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.001184748143389926</v>
+        <v>-0.002953785334151413</v>
       </c>
       <c r="AE37" t="n">
-        <v>-0.001184748143389926</v>
+        <v>-0.002953785334151413</v>
       </c>
     </row>
     <row r="38">
@@ -3920,87 +3920,87 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.009703220644128825</v>
+        <v>0.01880955790438231</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.002453565101166599</v>
+        <v>0.02909218925968757</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
-        <v>0.01466224061848962</v>
+        <v>0.01466136452245458</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01364453420978137</v>
+        <v>-0.01291033549241342</v>
       </c>
       <c r="H38" t="n">
         <v>-0.01529779539591181</v>
       </c>
       <c r="I38" t="n">
-        <v>-0.0255539300781572</v>
+        <v>0.002800700368028014</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01841189552303501</v>
+        <v>0.005237848874313541</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.009133938221357527</v>
+        <v>-0.009995002863800112</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.009133938221357527</v>
+        <v>-0.009995002863800112</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.009133938221357527</v>
+        <v>-0.009995002863800112</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.009133938221357527</v>
+        <v>-0.009995002863800112</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.009133938221357527</v>
+        <v>-0.009995002863800112</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01457554042302161</v>
+        <v>0.01407431624297265</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.001769909062796362</v>
+        <v>-0.003382486983299479</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.001769909062796362</v>
+        <v>-0.003382486983299479</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.001769909062796362</v>
+        <v>-0.003382486983299479</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.001769909062796362</v>
+        <v>-0.003382486983299479</v>
       </c>
       <c r="U38" t="n">
-        <v>0.005490128091605122</v>
+        <v>0.001885493787465003</v>
       </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="n">
-        <v>0.001507438716297549</v>
+        <v>0.00150422799616912</v>
       </c>
       <c r="X38" t="n">
-        <v>0.01777212109488484</v>
+        <v>0.00880821529632861</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.008279627179185086</v>
+        <v>-0.008281740811269632</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.004337637389505495</v>
+        <v>0.003661489586459583</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.01662106098484244</v>
+        <v>-0.008170213574808542</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.01662106098484244</v>
+        <v>-0.008170213574808542</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.01662106098484244</v>
+        <v>-0.008170213574808542</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.01662106098484244</v>
+        <v>-0.008170213574808542</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.01662106098484244</v>
+        <v>-0.008170213574808542</v>
       </c>
     </row>
     <row r="39">
@@ -4015,87 +4015,87 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.004711933628477345</v>
+        <v>0.009366786710671466</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.02444921071103204</v>
+        <v>0.009771227334849092</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>-0.001200535152021406</v>
+        <v>-0.001200285552011422</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0009824166152966646</v>
+        <v>-0.0007166780446671217</v>
       </c>
       <c r="H39" t="n">
         <v>-0.00346554925862197</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.01583389311335572</v>
+        <v>-0.002561875110475004</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.00617939842940477</v>
+        <v>-0.01297067526061774</v>
       </c>
       <c r="K39" t="n">
-        <v>0.02575375207015008</v>
+        <v>0.02588512826740513</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02575375207015008</v>
+        <v>0.02588512826740513</v>
       </c>
       <c r="M39" t="n">
-        <v>0.02575375207015008</v>
+        <v>0.02588512826740513</v>
       </c>
       <c r="N39" t="n">
-        <v>0.02575375207015008</v>
+        <v>0.02588512826740513</v>
       </c>
       <c r="O39" t="n">
-        <v>0.02575375207015008</v>
+        <v>0.02588512826740513</v>
       </c>
       <c r="P39" t="n">
-        <v>0.002954844022193761</v>
+        <v>0.002808772144350885</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.03942317677692707</v>
+        <v>0.03984785352991414</v>
       </c>
       <c r="R39" t="n">
-        <v>0.03942317677692707</v>
+        <v>0.03984785352991414</v>
       </c>
       <c r="S39" t="n">
-        <v>0.03942317677692707</v>
+        <v>0.03984785352991414</v>
       </c>
       <c r="T39" t="n">
-        <v>0.03942317677692707</v>
+        <v>0.03984785352991414</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.001847050633882025</v>
+        <v>-0.002096131379895562</v>
       </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="n">
-        <v>0.006665850698634027</v>
+        <v>0.006676763691070547</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.01940582900023316</v>
+        <v>-0.01815247944609917</v>
       </c>
       <c r="Y39" t="n">
-        <v>-0.02660734666429386</v>
+        <v>-0.02661168144846725</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.009018957096758283</v>
+        <v>-0.005993075471723018</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.02564903430596137</v>
+        <v>0.02617183535087341</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.02564903430596137</v>
+        <v>0.02617183535087341</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.02564903430596137</v>
+        <v>0.02617183535087341</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.02564903430596137</v>
+        <v>0.02617183535087341</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.02564903430596137</v>
+        <v>0.02617183535087341</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_3.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_3.xlsx
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.04773246795729871</v>
+        <v>-0.047730824917233</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
@@ -750,10 +750,10 @@
         <v>0.1765836888553475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04431772209270889</v>
+        <v>0.04431756993270279</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2335887026319771</v>
+        <v>0.2335884120935711</v>
       </c>
       <c r="K4" t="n">
         <v>0.02888201030728041</v>
@@ -786,35 +786,35 @@
         <v>0.01546185229847409</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.002243594873797641</v>
+        <v>-0.002247959897972347</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>0.01956828193473128</v>
+        <v>0.01957059198282367</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3095123183964927</v>
+        <v>0.3095011949720478</v>
       </c>
       <c r="Y4" t="n">
         <v>0.9980585269303408</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.2351125423645017</v>
+        <v>0.2351140617565624</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.1016501426260057</v>
+        <v>-0.101643625185745</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.1016501426260057</v>
+        <v>-0.101643625185745</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.1016501426260057</v>
+        <v>-0.101643625185745</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.1016501426260057</v>
+        <v>-0.101643625185745</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.1016501426260057</v>
+        <v>-0.101643625185745</v>
       </c>
     </row>
     <row r="5">
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0878303429372137</v>
+        <v>0.08783123093724922</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
@@ -841,10 +841,10 @@
         <v>0.008470465394818614</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.03709523380380935</v>
+        <v>-0.03709537914781517</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01110641950291556</v>
+        <v>0.01110647796718455</v>
       </c>
       <c r="K5" t="n">
         <v>0.09362077286483089</v>
@@ -877,35 +877,35 @@
         <v>0.1697637390465495</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07684732214773723</v>
+        <v>0.07684672397171328</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>0.002569518534780741</v>
+        <v>0.002569427430777097</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.2757286319891453</v>
+        <v>-0.2757315971412638</v>
       </c>
       <c r="Y5" t="n">
         <v>-0.01175957327038293</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.1731374200454968</v>
+        <v>-0.1731417273736691</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1996068343842733</v>
+        <v>0.1996081460323258</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1996068343842733</v>
+        <v>0.1996081460323258</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1996068343842733</v>
+        <v>0.1996081460323258</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1996068343842733</v>
+        <v>0.1996081460323258</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1996068343842733</v>
+        <v>0.1996081460323258</v>
       </c>
     </row>
     <row r="6">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3745722949508917</v>
+        <v>0.3745733247429329</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
@@ -932,10 +932,10 @@
         <v>-0.006998576439943056</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5853825610473024</v>
+        <v>-0.5853824858792993</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1092099056078688</v>
+        <v>0.1092098525704877</v>
       </c>
       <c r="K6" t="n">
         <v>0.01227868311514732</v>
@@ -968,35 +968,35 @@
         <v>0.02901910138476405</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04042368699391764</v>
+        <v>0.04042644526602805</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>-0.02792400063696002</v>
+        <v>-0.02792284402891376</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02006967430678697</v>
+        <v>0.02007452537898101</v>
       </c>
       <c r="Y6" t="n">
         <v>-0.0009923803596952143</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.2385805568072223</v>
+        <v>-0.238582775943311</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.003709672276386891</v>
+        <v>-0.003712417972496718</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.003709672276386891</v>
+        <v>-0.003712417972496718</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.003709672276386891</v>
+        <v>-0.003712417972496718</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.003709672276386891</v>
+        <v>-0.003712417972496718</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.003709672276386891</v>
+        <v>-0.003712417972496718</v>
       </c>
     </row>
     <row r="7">
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.002652137098085483</v>
+        <v>-0.002651539210061568</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
@@ -1023,10 +1023,10 @@
         <v>0.0088485200339408</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.002490883107635324</v>
+        <v>-0.002490862947634518</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01071837620674192</v>
+        <v>0.01071838259099943</v>
       </c>
       <c r="K7" t="n">
         <v>0.006488296195531847</v>
@@ -1059,35 +1059,35 @@
         <v>0.002542265861690634</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003266065330720999</v>
+        <v>0.00326717393876537</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.01725476411419057</v>
+        <v>0.01725452862618114</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.01543777271351091</v>
+        <v>-0.01543446445737858</v>
       </c>
       <c r="Y7" t="n">
         <v>-0.01073480961339238</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.02475407695816308</v>
+        <v>-0.02475265539010621</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.009902626476105058</v>
+        <v>0.009901705164068204</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.009902626476105058</v>
+        <v>0.009901705164068204</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.009902626476105058</v>
+        <v>0.009901705164068204</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.009902626476105058</v>
+        <v>0.009901705164068204</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.009902626476105058</v>
+        <v>0.009901705164068204</v>
       </c>
     </row>
     <row r="8">
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3516725545469022</v>
+        <v>0.3516726042749041</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
@@ -1114,10 +1114,10 @@
         <v>-0.001561537790461512</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7490542425701696</v>
+        <v>0.7490543670821747</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1485170270381897</v>
+        <v>-0.1485172565297637</v>
       </c>
       <c r="K8" t="n">
         <v>-0.01611086368443455</v>
@@ -1150,35 +1150,35 @@
         <v>-0.0298889126835565</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02113625930995764</v>
+        <v>0.021140415822124</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>0.009687751875510072</v>
+        <v>0.009687636675505467</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.03766542323461693</v>
+        <v>-0.03765566665822666</v>
       </c>
       <c r="Y8" t="n">
         <v>0.003045803641832145</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2945444049337761</v>
+        <v>0.2945449216057968</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01864004800960192</v>
+        <v>0.01863663837746554</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01864004800960192</v>
+        <v>0.01863663837746554</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.01864004800960192</v>
+        <v>0.01863663837746554</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01864004800960192</v>
+        <v>0.01863663837746554</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.01864004800960192</v>
+        <v>0.01863663837746554</v>
       </c>
     </row>
     <row r="9">
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6635507740300308</v>
+        <v>0.6635503125580123</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
@@ -1209,10 +1209,10 @@
         <v>0.000364514126580565</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008653350586134024</v>
+        <v>0.008653490362139615</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01803568918372752</v>
+        <v>-0.01803638806418953</v>
       </c>
       <c r="K9" t="n">
         <v>-0.002746737613869504</v>
@@ -1245,35 +1245,35 @@
         <v>-0.007030070873202833</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.8967884991730629</v>
+        <v>-0.8967865177329837</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>0.009567367390694694</v>
+        <v>0.009566071294642849</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.01620400864816034</v>
+        <v>-0.01619171949566878</v>
       </c>
       <c r="Y9" t="n">
         <v>-0.002616474632658985</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.001943487341739494</v>
+        <v>-0.00194321950172878</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.00960941606437664</v>
+        <v>0.009605437920217516</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.00960941606437664</v>
+        <v>0.009605437920217516</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.00960941606437664</v>
+        <v>0.009605437920217516</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.00960941606437664</v>
+        <v>0.009605437920217516</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.00960941606437664</v>
+        <v>0.009605437920217516</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0188455650098226</v>
+        <v>0.0188457426098297</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
@@ -1304,10 +1304,10 @@
         <v>0.03064438672977546</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.004682444251297769</v>
+        <v>-0.004682604091304162</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.01008600339638462</v>
+        <v>-0.01008622539663594</v>
       </c>
       <c r="K10" t="n">
         <v>0.0219209725568389</v>
@@ -1340,35 +1340,35 @@
         <v>0.01375852624634105</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.001353948198190423</v>
+        <v>-0.001356994086312331</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>0.005849140361965613</v>
+        <v>0.005849864873994594</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.01003553665742146</v>
+        <v>-0.01004700971388039</v>
       </c>
       <c r="Y10" t="n">
         <v>0.004825716577028663</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.00605616053024642</v>
+        <v>-0.006060379058415162</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.0191956674238267</v>
+        <v>0.01920050697602027</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0191956674238267</v>
+        <v>0.01920050697602027</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0191956674238267</v>
+        <v>0.01920050697602027</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0191956674238267</v>
+        <v>0.01920050697602027</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0191956674238267</v>
+        <v>0.01920050697602027</v>
       </c>
     </row>
     <row r="11">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01810523813220952</v>
+        <v>0.0181052175882087</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
@@ -1399,10 +1399,10 @@
         <v>-0.001071932202877288</v>
       </c>
       <c r="I11" t="n">
-        <v>0.008730098077203921</v>
+        <v>0.008730301501212059</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.005149100326614501</v>
+        <v>-0.005149466854753365</v>
       </c>
       <c r="K11" t="n">
         <v>-0.001421418968856759</v>
@@ -1435,35 +1435,35 @@
         <v>-0.00319211475168459</v>
       </c>
       <c r="U11" t="n">
-        <v>0.006597715944066983</v>
+        <v>0.006598974792117368</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>0.01836895081475803</v>
+        <v>0.01836942659077706</v>
       </c>
       <c r="X11" t="n">
-        <v>0.008870991618839663</v>
+        <v>0.008873154786926192</v>
       </c>
       <c r="Y11" t="n">
         <v>-0.01424320290572811</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.002973840118953605</v>
+        <v>0.002972746102909844</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.00887505078700203</v>
+        <v>-0.008877163171086526</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.00887505078700203</v>
+        <v>-0.008877163171086526</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.00887505078700203</v>
+        <v>-0.008877163171086526</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.00887505078700203</v>
+        <v>-0.008877163171086526</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.00887505078700203</v>
+        <v>-0.008877163171086526</v>
       </c>
     </row>
     <row r="12">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.09969910881996433</v>
+        <v>0.09969899237195967</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
@@ -1494,10 +1494,10 @@
         <v>0.01309334375573375</v>
       </c>
       <c r="I12" t="n">
-        <v>0.003578252207130088</v>
+        <v>0.003578666639146665</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0286308661853345</v>
+        <v>-0.02863119028203516</v>
       </c>
       <c r="K12" t="n">
         <v>0.01189987065199482</v>
@@ -1530,35 +1530,35 @@
         <v>0.01004867291394692</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09906847918111682</v>
+        <v>0.09906664164504328</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>0.02836627140665085</v>
+        <v>0.0283660825746433</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.01300373351214934</v>
+        <v>-0.01301605972064239</v>
       </c>
       <c r="Y12" t="n">
         <v>0.01067973825118953</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.01023100533724021</v>
+        <v>-0.01023645813745832</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01511509356460374</v>
+        <v>0.01512144713285788</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01511509356460374</v>
+        <v>0.01512144713285788</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01511509356460374</v>
+        <v>0.01512144713285788</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01511509356460374</v>
+        <v>0.01512144713285788</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.01511509356460374</v>
+        <v>0.01512144713285788</v>
       </c>
     </row>
     <row r="13">
@@ -1569,7 +1569,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.4509245583249822</v>
+        <v>-0.450924427764977</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
@@ -1585,10 +1585,10 @@
         <v>0.01952371537294861</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001066934442677378</v>
+        <v>0.00106683450667338</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.01454006350202984</v>
+        <v>-0.01453981385436839</v>
       </c>
       <c r="K13" t="n">
         <v>0.01660424312816972</v>
@@ -1621,35 +1621,35 @@
         <v>0.01641982203279288</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.07259769621765019</v>
+        <v>-0.07259697295362125</v>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>-0.009586298111451922</v>
+        <v>-0.009587133503485338</v>
       </c>
       <c r="X13" t="n">
-        <v>0.002490714339628573</v>
+        <v>0.00249734400389376</v>
       </c>
       <c r="Y13" t="n">
         <v>0.01275411679816467</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.008967321382692853</v>
+        <v>0.008969070598762823</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.004114479908579196</v>
+        <v>0.004111346180453846</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.004114479908579196</v>
+        <v>0.004111346180453846</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.004114479908579196</v>
+        <v>0.004111346180453846</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.004114479908579196</v>
+        <v>0.004111346180453846</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.004114479908579196</v>
+        <v>0.004111346180453846</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.01969963518798541</v>
+        <v>-0.01969953957198158</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
@@ -1680,10 +1680,10 @@
         <v>0.0074490650019626</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.01870829786833191</v>
+        <v>-0.01870844186833767</v>
       </c>
       <c r="J14" t="n">
-        <v>0.005693195997292409</v>
+        <v>0.005693016717421569</v>
       </c>
       <c r="K14" t="n">
         <v>0.002137764661510586</v>
@@ -1716,35 +1716,35 @@
         <v>-0.001856561930262477</v>
       </c>
       <c r="U14" t="n">
-        <v>0.002692344875758411</v>
+        <v>0.002694428747841816</v>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>-0.0001483543739341749</v>
+        <v>-0.0001477842299113692</v>
       </c>
       <c r="X14" t="n">
-        <v>0.009514508444580336</v>
+        <v>0.00952521177300847</v>
       </c>
       <c r="Y14" t="n">
         <v>-0.003784385335375413</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.01275607414224296</v>
+        <v>-0.0127555473902219</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.006237376377495055</v>
+        <v>-0.006240156729606269</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.006237376377495055</v>
+        <v>-0.006240156729606269</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.006237376377495055</v>
+        <v>-0.006240156729606269</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.006237376377495055</v>
+        <v>-0.006240156729606269</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.006237376377495055</v>
+        <v>-0.006240156729606269</v>
       </c>
     </row>
     <row r="15">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.00049058325162333</v>
+        <v>0.0004906833796273351</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
@@ -1775,10 +1775,10 @@
         <v>0.005684687939387516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01110231394809256</v>
+        <v>0.0111021851160874</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.007596459100620415</v>
+        <v>-0.007596493036804144</v>
       </c>
       <c r="K15" t="n">
         <v>0.008316471980658879</v>
@@ -1811,35 +1811,35 @@
         <v>0.0100593350583734</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.01049970037224001</v>
+        <v>-0.01050101662829269</v>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>0.002615175272607011</v>
+        <v>0.002615112680604507</v>
       </c>
       <c r="X15" t="n">
-        <v>0.001351273590050943</v>
+        <v>0.001349387285975491</v>
       </c>
       <c r="Y15" t="n">
         <v>0.001504612284184491</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.009036895273475809</v>
+        <v>0.009042939913717594</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.004283962827358512</v>
+        <v>0.004285253643410145</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.004283962827358512</v>
+        <v>0.004285253643410145</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.004283962827358512</v>
+        <v>0.004285253643410145</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.004283962827358512</v>
+        <v>0.004285253643410145</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.004283962827358512</v>
+        <v>0.004285253643410145</v>
       </c>
     </row>
     <row r="16">
@@ -1854,7 +1854,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.006747957197918287</v>
+        <v>0.006747253709890147</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
@@ -1870,10 +1870,10 @@
         <v>0.004056001122240045</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.01611475869259034</v>
+        <v>-0.01611449354057974</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.01448138978758432</v>
+        <v>-0.01448108925991935</v>
       </c>
       <c r="K16" t="n">
         <v>0.01865071015402841</v>
@@ -1906,35 +1906,35 @@
         <v>0.02816518327060732</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0030388067296252</v>
+        <v>0.003040815913705616</v>
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>0.01412234869289395</v>
+        <v>0.01412146722085869</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.01141968448878738</v>
+        <v>-0.0114141650645666</v>
       </c>
       <c r="Y16" t="n">
         <v>0.001170574030822961</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.01501123567244942</v>
+        <v>-0.01500941724037669</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01062148669685947</v>
+        <v>0.0106198674647947</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.01062148669685947</v>
+        <v>0.0106198674647947</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.01062148669685947</v>
+        <v>0.0106198674647947</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.01062148669685947</v>
+        <v>0.0106198674647947</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.01062148669685947</v>
+        <v>0.0106198674647947</v>
       </c>
     </row>
     <row r="17">
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.0008313696332547853</v>
+        <v>-0.0008308550732342028</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
@@ -1965,10 +1965,10 @@
         <v>0.008068310050732401</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.007696754323870172</v>
+        <v>-0.007696858387874335</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0005061465330961874</v>
+        <v>0.0005060374291037848</v>
       </c>
       <c r="K17" t="n">
         <v>0.001862357834494313</v>
@@ -2001,35 +2001,35 @@
         <v>-0.0009193013167720526</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02851224330117403</v>
+        <v>0.02851107469312726</v>
       </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>0.01910042466801698</v>
+        <v>0.01909930895597236</v>
       </c>
       <c r="X17" t="n">
-        <v>0.02244623849784954</v>
+        <v>0.02244069488162779</v>
       </c>
       <c r="Y17" t="n">
         <v>0.01156087102243484</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.00894046701361868</v>
+        <v>0.008937542565501701</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.008991044999641798</v>
+        <v>-0.008987915207516609</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.008991044999641798</v>
+        <v>-0.008987915207516609</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.008991044999641798</v>
+        <v>-0.008987915207516609</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.008991044999641798</v>
+        <v>-0.008987915207516609</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.008991044999641798</v>
+        <v>-0.008987915207516609</v>
       </c>
     </row>
     <row r="18">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.00649382176375287</v>
+        <v>-0.006493129699725188</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
@@ -2056,10 +2056,10 @@
         <v>0.017880824971233</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.001580172831206913</v>
+        <v>-0.001580266047210642</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002019106500156359</v>
+        <v>0.002019101220204597</v>
       </c>
       <c r="K18" t="n">
         <v>0.009667006754680268</v>
@@ -2092,35 +2092,35 @@
         <v>0.006293785787751431</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0062041400243145</v>
+        <v>0.006200194232156574</v>
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>-0.01218789168751567</v>
+        <v>-0.01218738365549535</v>
       </c>
       <c r="X18" t="n">
-        <v>0.01172047083681883</v>
+        <v>0.01170673784426951</v>
       </c>
       <c r="Y18" t="n">
         <v>0.03970264718810588</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.02346729588269183</v>
+        <v>0.02346812167472486</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.001511091420443657</v>
+        <v>0.001517292924691717</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.001511091420443657</v>
+        <v>0.001517292924691717</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.001511091420443657</v>
+        <v>0.001517292924691717</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.001511091420443657</v>
+        <v>0.001517292924691717</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.001511091420443657</v>
+        <v>0.001517292924691717</v>
       </c>
     </row>
     <row r="19">
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.003362152550486102</v>
+        <v>0.003362830694513227</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
@@ -2151,10 +2151,10 @@
         <v>0.01502727324109093</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01750272050810881</v>
+        <v>0.01750269718010788</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0159206911115744</v>
+        <v>-0.01592050583194878</v>
       </c>
       <c r="K19" t="n">
         <v>0.01030659977226399</v>
@@ -2187,35 +2187,35 @@
         <v>0.002980425911217036</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.02732836078979031</v>
+        <v>-0.02733088328589128</v>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>0.006953656502146259</v>
+        <v>0.006952232246089289</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.02206381893055276</v>
+        <v>-0.02207457909098316</v>
       </c>
       <c r="Y19" t="n">
         <v>-0.008198073159922924</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.009723768676950746</v>
+        <v>-0.009726780101071203</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01864844608993784</v>
+        <v>0.01865269466610778</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01864844608993784</v>
+        <v>0.01865269466610778</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01864844608993784</v>
+        <v>0.01865269466610778</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01864844608993784</v>
+        <v>0.01865269466610778</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.01864844608993784</v>
+        <v>0.01865269466610778</v>
       </c>
     </row>
     <row r="20">
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01191972614078905</v>
+        <v>-0.01191979353279174</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
@@ -2246,10 +2246,10 @@
         <v>0.01584765816990633</v>
       </c>
       <c r="I20" t="n">
-        <v>0.005443907545756301</v>
+        <v>0.005443865017754601</v>
       </c>
       <c r="J20" t="n">
-        <v>-8.657457960842846e-05</v>
+        <v>-8.646446760591414e-05</v>
       </c>
       <c r="K20" t="n">
         <v>0.00629648473185939</v>
@@ -2282,35 +2282,35 @@
         <v>-0.0004331198573247943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01991771508518663</v>
+        <v>0.01991474926106792</v>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>0.006249415833976632</v>
+        <v>0.006248452473938098</v>
       </c>
       <c r="X20" t="n">
-        <v>0.004932453893298156</v>
+        <v>0.004920834244833369</v>
       </c>
       <c r="Y20" t="n">
         <v>0.01457264717490588</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.003093453723738149</v>
+        <v>0.003098039067921562</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0009464988858599552</v>
+        <v>0.0009513616700544666</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0009464988858599552</v>
+        <v>0.0009513616700544666</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0009464988858599552</v>
+        <v>0.0009513616700544666</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0009464988858599552</v>
+        <v>0.0009513616700544666</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0009464988858599552</v>
+        <v>0.0009513616700544666</v>
       </c>
     </row>
     <row r="21">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.01869116215564648</v>
+        <v>-0.0186905875956235</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
@@ -2337,10 +2337,10 @@
         <v>0.01596776022271041</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01924330521773221</v>
+        <v>0.01924329993773199</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.02266382062462804</v>
+        <v>-0.02266375822516937</v>
       </c>
       <c r="K21" t="n">
         <v>0.01584654159386166</v>
@@ -2373,35 +2373,35 @@
         <v>0.01458498355939934</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01455769603865723</v>
+        <v>0.01455466954253609</v>
       </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>0.003954263966170558</v>
+        <v>0.003954699806187992</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.01926344141053766</v>
+        <v>-0.01927039977881599</v>
       </c>
       <c r="Y21" t="n">
         <v>0.01036382643055305</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.001422841880913675</v>
+        <v>0.001421155064846203</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02231851308474052</v>
+        <v>0.02232071426882857</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.02231851308474052</v>
+        <v>0.02232071426882857</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.02231851308474052</v>
+        <v>0.02232071426882857</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.02231851308474052</v>
+        <v>0.02232071426882857</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.02231851308474052</v>
+        <v>0.02232071426882857</v>
       </c>
     </row>
     <row r="22">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02518040347121613</v>
+        <v>-0.02518016299120652</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
@@ -2428,10 +2428,10 @@
         <v>-0.002924413364976535</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.008865450978618038</v>
+        <v>-0.008865614946624597</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.01847073955386042</v>
+        <v>-0.01847069419430183</v>
       </c>
       <c r="K22" t="n">
         <v>-0.01912118994884759</v>
@@ -2464,35 +2464,35 @@
         <v>-0.0304108875524355</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01607826707551656</v>
+        <v>0.01607851705952656</v>
       </c>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>0.001594332927773317</v>
+        <v>0.001594459551778382</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.01331001672440067</v>
+        <v>-0.01330438862817554</v>
       </c>
       <c r="Y22" t="n">
         <v>-0.002327976861119074</v>
       </c>
       <c r="Z22" t="n">
-        <v>-0.01405260805010432</v>
+        <v>-0.01405424273816971</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.006867779410711176</v>
+        <v>0.006863182738527308</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.006867779410711176</v>
+        <v>0.006863182738527308</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.006867779410711176</v>
+        <v>0.006863182738527308</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.006867779410711176</v>
+        <v>0.006863182738527308</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.006867779410711176</v>
+        <v>0.006863182738527308</v>
       </c>
     </row>
     <row r="23">
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.002114730324589213</v>
+        <v>0.002113990740559629</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
@@ -2519,10 +2519,10 @@
         <v>-0.01048538873941555</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.001675557187022287</v>
+        <v>-0.001675460707018428</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.01065253940399784</v>
+        <v>-0.01065226201224193</v>
       </c>
       <c r="K23" t="n">
         <v>-0.009785861959434478</v>
@@ -2555,35 +2555,35 @@
         <v>-0.008151919430076777</v>
       </c>
       <c r="U23" t="n">
-        <v>0.008986755143685887</v>
+        <v>0.008984896391611494</v>
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>-0.002247560153902406</v>
+        <v>-0.002247559577902383</v>
       </c>
       <c r="X23" t="n">
-        <v>0.002766690830667633</v>
+        <v>0.002759128046365121</v>
       </c>
       <c r="Y23" t="n">
         <v>-0.007362892806515712</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.0008447902417916095</v>
+        <v>0.0008408748816349951</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.003810408920416356</v>
+        <v>-0.003806292920251716</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.003810408920416356</v>
+        <v>-0.003806292920251716</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.003810408920416356</v>
+        <v>-0.003806292920251716</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.003810408920416356</v>
+        <v>-0.003806292920251716</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.003810408920416356</v>
+        <v>-0.003806292920251716</v>
       </c>
     </row>
     <row r="24">
@@ -2598,7 +2598,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01230504865220195</v>
+        <v>-0.01230557137222285</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
@@ -2614,10 +2614,10 @@
         <v>0.007708004468320179</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01419436472777459</v>
+        <v>0.01419456555978262</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.002976377548055416</v>
+        <v>-0.002976448684129816</v>
       </c>
       <c r="K24" t="n">
         <v>0.01096631304665252</v>
@@ -2650,35 +2650,35 @@
         <v>0.01248390942735638</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0249315684378611</v>
+        <v>0.02492761870970301</v>
       </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>0.0068610524984421</v>
+        <v>0.006860226418409054</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.005711292996451718</v>
+        <v>-0.005719843140793725</v>
       </c>
       <c r="Y24" t="n">
         <v>0.01078364145534566</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.002005199696207988</v>
+        <v>0.002006673296266932</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.00762560276902411</v>
+        <v>0.007631384657255385</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.00762560276902411</v>
+        <v>0.007631384657255385</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.00762560276902411</v>
+        <v>0.007631384657255385</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.00762560276902411</v>
+        <v>0.007631384657255385</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.00762560276902411</v>
+        <v>0.007631384657255385</v>
       </c>
     </row>
     <row r="25">
@@ -2689,7 +2689,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.01488349528333981</v>
+        <v>-0.01488410526736421</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
@@ -2705,10 +2705,10 @@
         <v>0.02447870469114818</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.0008306902412276094</v>
+        <v>-0.0008306034572241381</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.002749748130609502</v>
+        <v>-0.002749612194669827</v>
       </c>
       <c r="K25" t="n">
         <v>0.01916914847876594</v>
@@ -2741,35 +2741,35 @@
         <v>0.01403220728128829</v>
       </c>
       <c r="U25" t="n">
-        <v>0.005121348876976867</v>
+        <v>0.005123426605060027</v>
       </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>0.01789601610784064</v>
+        <v>0.01789863642794546</v>
       </c>
       <c r="X25" t="n">
-        <v>0.00356232225449289</v>
+        <v>0.003570661390826455</v>
       </c>
       <c r="Y25" t="n">
         <v>0.01503642597745704</v>
       </c>
       <c r="Z25" t="n">
-        <v>-0.009983924751356989</v>
+        <v>-0.00998272705530908</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.008486739987469597</v>
+        <v>0.008483743251349729</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.008486739987469597</v>
+        <v>0.008483743251349729</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.008486739987469597</v>
+        <v>0.008483743251349729</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.008486739987469597</v>
+        <v>0.008483743251349729</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.008486739987469597</v>
+        <v>0.008483743251349729</v>
       </c>
     </row>
     <row r="26">
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01295984279039371</v>
+        <v>0.01295989165439567</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
@@ -2800,10 +2800,10 @@
         <v>0.02160733478429339</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.007146379677855186</v>
+        <v>-0.007146287805851511</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.00600208517816691</v>
+        <v>-0.006002013562307972</v>
       </c>
       <c r="K26" t="n">
         <v>0.01546246727449869</v>
@@ -2836,35 +2836,35 @@
         <v>0.01032111622084465</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.02083659606596392</v>
+        <v>-0.02083660336196421</v>
       </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>-0.01733622040544881</v>
+        <v>-0.01733478280539131</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.008718574716742988</v>
+        <v>-0.008715260028610399</v>
       </c>
       <c r="Y26" t="n">
         <v>0.01781767319270693</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.02636911055876442</v>
+        <v>-0.02636701199868047</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01765647517025901</v>
+        <v>0.01765547120221885</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.01765647517025901</v>
+        <v>0.01765547120221885</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01765647517025901</v>
+        <v>0.01765547120221885</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.01765647517025901</v>
+        <v>0.01765547120221885</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.01765647517025901</v>
+        <v>0.01765547120221885</v>
       </c>
     </row>
     <row r="27">
@@ -2875,7 +2875,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.005341647477665898</v>
+        <v>0.005341897077675882</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
@@ -2891,10 +2891,10 @@
         <v>-0.01450509610020384</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0122383325855333</v>
+        <v>0.01223835360953414</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.00799616942128034</v>
+        <v>-0.007996003389465324</v>
       </c>
       <c r="K27" t="n">
         <v>-0.007011615928464636</v>
@@ -2927,35 +2927,35 @@
         <v>-0.001766803654672146</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.008602549832308456</v>
+        <v>-0.008598738824155922</v>
       </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>0.01196371199854848</v>
+        <v>0.01196546390261856</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.001741396293655851</v>
+        <v>-0.001728091077123643</v>
       </c>
       <c r="Y27" t="n">
         <v>-0.01034929020597161</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.005423216376928654</v>
+        <v>0.005421827448873097</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.00167847625913905</v>
+        <v>-0.001684141891365675</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.00167847625913905</v>
+        <v>-0.001684141891365675</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.00167847625913905</v>
+        <v>-0.001684141891365675</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.00167847625913905</v>
+        <v>-0.001684141891365675</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.00167847625913905</v>
+        <v>-0.001684141891365675</v>
       </c>
     </row>
     <row r="28">
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01360968947238758</v>
+        <v>0.01360985689639427</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
@@ -2986,10 +2986,10 @@
         <v>-0.02523759172950367</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01803662971346519</v>
+        <v>0.01803643886545755</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01485666493922579</v>
+        <v>0.01485664953158171</v>
       </c>
       <c r="K28" t="n">
         <v>-0.02413725168549007</v>
@@ -3022,35 +3022,35 @@
         <v>-0.02047028827481153</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003910641228519505</v>
+        <v>0.003908231148423044</v>
       </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>0.9915892239515688</v>
+        <v>0.9915893233115728</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.003868384570735382</v>
+        <v>-0.00387794300311772</v>
       </c>
       <c r="Y28" t="n">
         <v>-0.03886077438643097</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.03598996348759854</v>
+        <v>0.0359900550716022</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.03572355570094222</v>
+        <v>-0.035720350164814</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.03572355570094222</v>
+        <v>-0.035720350164814</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.03572355570094222</v>
+        <v>-0.035720350164814</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.03572355570094222</v>
+        <v>-0.035720350164814</v>
       </c>
       <c r="AE28" t="n">
-        <v>-0.03572355570094222</v>
+        <v>-0.035720350164814</v>
       </c>
     </row>
     <row r="29">
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0001122169964886798</v>
+        <v>0.0001117032044681282</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
@@ -3081,10 +3081,10 @@
         <v>-0.01669819343592773</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.02396170358246814</v>
+        <v>-0.02396163215846528</v>
       </c>
       <c r="J29" t="n">
-        <v>0.03251252492312204</v>
+        <v>0.03251211092388507</v>
       </c>
       <c r="K29" t="n">
         <v>-0.01935860189434407</v>
@@ -3117,35 +3117,35 @@
         <v>-0.01845766441830658</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.007093643035915968</v>
+        <v>-0.007093325563903263</v>
       </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="n">
-        <v>0.0212123699364948</v>
+        <v>0.02121349380853975</v>
       </c>
       <c r="X29" t="n">
-        <v>0.0149265626130625</v>
+        <v>0.01493028434121137</v>
       </c>
       <c r="Y29" t="n">
         <v>0.001302889876115595</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.01309699549987982</v>
+        <v>0.01309917517996701</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.01775084067803362</v>
+        <v>-0.01775108951004358</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.01775084067803362</v>
+        <v>-0.01775108951004358</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.01775084067803362</v>
+        <v>-0.01775108951004358</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.01775084067803362</v>
+        <v>-0.01775108951004358</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.01775084067803362</v>
+        <v>-0.01775108951004358</v>
       </c>
     </row>
     <row r="30">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01531221574848863</v>
+        <v>-0.01531224109248964</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
@@ -3176,10 +3176,10 @@
         <v>-0.01741705836068233</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.02350465428418617</v>
+        <v>-0.02350489130819565</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.005330710734184023</v>
+        <v>-0.005330815470316328</v>
       </c>
       <c r="K30" t="n">
         <v>-0.006360488126419523</v>
@@ -3212,35 +3212,35 @@
         <v>0.001572404990896199</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02031257394899046</v>
+        <v>0.02031544377310532</v>
       </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="n">
-        <v>0.1101099917643996</v>
+        <v>0.1101092817483713</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.0103947549437902</v>
+        <v>-0.01039218598368744</v>
       </c>
       <c r="Y30" t="n">
         <v>-0.02759121633564865</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.01798677479947099</v>
+        <v>-0.01799195927967837</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.001758102214324088</v>
+        <v>-0.001760231590409263</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.001758102214324088</v>
+        <v>-0.001760231590409263</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.001758102214324088</v>
+        <v>-0.001760231590409263</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.001758102214324088</v>
+        <v>-0.001760231590409263</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.001758102214324088</v>
+        <v>-0.001760231590409263</v>
       </c>
     </row>
     <row r="31">
@@ -3255,7 +3255,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.004236238633449544</v>
+        <v>-0.004235327881413114</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
@@ -3271,10 +3271,10 @@
         <v>-0.003690063891602556</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0128929825317193</v>
+        <v>0.01289313353972534</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.009761446630857094</v>
+        <v>-0.009761957687112681</v>
       </c>
       <c r="K31" t="n">
         <v>-0.001140231213609248</v>
@@ -3307,35 +3307,35 @@
         <v>1.480732859229314e-05</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.008842845329926042</v>
+        <v>-0.008843479601951428</v>
       </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="n">
-        <v>0.01074921575796863</v>
+        <v>0.0107483625099345</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.001512119484484779</v>
+        <v>-0.001516654812666192</v>
       </c>
       <c r="Y31" t="n">
         <v>-0.008816976640679064</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.00653469702938788</v>
+        <v>0.006532847493313899</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.003990864639634585</v>
+        <v>-0.003989163135566525</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.003990864639634585</v>
+        <v>-0.003989163135566525</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.003990864639634585</v>
+        <v>-0.003989163135566525</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.003990864639634585</v>
+        <v>-0.003989163135566525</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.003990864639634585</v>
+        <v>-0.003989163135566525</v>
       </c>
     </row>
     <row r="32">
@@ -3350,7 +3350,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1458779634991185</v>
+        <v>0.1458777415471096</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
@@ -3366,10 +3366,10 @@
         <v>0.9869956307758251</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2450002896080115</v>
+        <v>0.2450001199760048</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.6120440128539943</v>
+        <v>-0.6120439214286796</v>
       </c>
       <c r="K32" t="n">
         <v>0.9310201602168062</v>
@@ -3402,35 +3402,35 @@
         <v>0.7885932502637298</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.2314915190412166</v>
+        <v>-0.2314958921293916</v>
       </c>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>-0.0223357975014319</v>
+        <v>-0.02233434175737367</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.6491377776455109</v>
+        <v>-0.6491451654218066</v>
       </c>
       <c r="Y32" t="n">
         <v>0.02857808331912333</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.5946206976728278</v>
+        <v>-0.5946171744726869</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.8582631079305242</v>
+        <v>0.8582645357385813</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.8582631079305242</v>
+        <v>0.8582645357385813</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.8582631079305242</v>
+        <v>0.8582645357385813</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.8582631079305242</v>
+        <v>0.8582645357385813</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.8582631079305242</v>
+        <v>0.8582645357385813</v>
       </c>
     </row>
     <row r="33">
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.01030808383632335</v>
+        <v>-0.01030834073233363</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
@@ -3461,10 +3461,10 @@
         <v>-0.006144108149764326</v>
       </c>
       <c r="I33" t="n">
-        <v>0.002551903302076132</v>
+        <v>0.002551541286061651</v>
       </c>
       <c r="J33" t="n">
-        <v>0.006520415311770909</v>
+        <v>0.006520634767936551</v>
       </c>
       <c r="K33" t="n">
         <v>-0.01031240978849639</v>
@@ -3497,35 +3497,35 @@
         <v>-0.01245967931438717</v>
       </c>
       <c r="U33" t="n">
-        <v>0.003777799543202649</v>
+        <v>0.003780701623318802</v>
       </c>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>0.0097033675241347</v>
+        <v>0.009704693572187742</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01547393437895737</v>
+        <v>0.01548664189946567</v>
       </c>
       <c r="Y33" t="n">
         <v>0.02070782338831293</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.01998656988746279</v>
+        <v>0.01998847951953918</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.01737070571882823</v>
+        <v>-0.01737458267898331</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.01737070571882823</v>
+        <v>-0.01737458267898331</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.01737070571882823</v>
+        <v>-0.01737458267898331</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.01737070571882823</v>
+        <v>-0.01737458267898331</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.01737070571882823</v>
+        <v>-0.01737458267898331</v>
       </c>
     </row>
     <row r="34">
@@ -3540,7 +3540,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.0007488887339555493</v>
+        <v>-0.0007493165099726603</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
@@ -3556,10 +3556,10 @@
         <v>0.00287552699502108</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01341357404054296</v>
+        <v>0.01341391484055659</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.002657372030759266</v>
+        <v>-0.002657442014825962</v>
       </c>
       <c r="K34" t="n">
         <v>0.006100860628034424</v>
@@ -3592,35 +3592,35 @@
         <v>0.007836628441465135</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.02030846318082593</v>
+        <v>-0.02030841786882412</v>
       </c>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
-        <v>-0.01313522884540915</v>
+        <v>-0.01313615447744618</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.006674038346961533</v>
+        <v>-0.006669591434783657</v>
       </c>
       <c r="Y34" t="n">
         <v>0.0004204228968169158</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.006583663943346556</v>
+        <v>0.006588527687541106</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.008797088127883525</v>
+        <v>0.008795851071834041</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.008797088127883525</v>
+        <v>0.008795851071834041</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.008797088127883525</v>
+        <v>0.008795851071834041</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.008797088127883525</v>
+        <v>0.008795851071834041</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.008797088127883525</v>
+        <v>0.008795851071834041</v>
       </c>
     </row>
     <row r="35">
@@ -3635,7 +3635,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.01779678647187146</v>
+        <v>-0.01779690464787618</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
@@ -3651,10 +3651,10 @@
         <v>-0.02476387635055505</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.00579710327188413</v>
+        <v>-0.005797157703886308</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01297258119669718</v>
+        <v>0.01297268833301299</v>
       </c>
       <c r="K35" t="n">
         <v>0.3084191637607665</v>
@@ -3687,35 +3687,35 @@
         <v>0.5291558900622355</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02339211410424598</v>
+        <v>0.02339383068031468</v>
       </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="n">
-        <v>-0.0006255702010228079</v>
+        <v>-0.0006257170810286831</v>
       </c>
       <c r="X35" t="n">
-        <v>0.02627075855483034</v>
+        <v>0.02627319647492786</v>
       </c>
       <c r="Y35" t="n">
         <v>0.01237830270313211</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.02456251106250044</v>
+        <v>0.02456250645450025</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.0486127600565104</v>
+        <v>0.0486105699124228</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.0486127600565104</v>
+        <v>0.0486105699124228</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.0486127600565104</v>
+        <v>0.0486105699124228</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.0486127600565104</v>
+        <v>0.0486105699124228</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.0486127600565104</v>
+        <v>0.0486105699124228</v>
       </c>
     </row>
     <row r="36">
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.03190111654004466</v>
+        <v>-0.03190058594802343</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
@@ -3746,10 +3746,10 @@
         <v>0.0153446123897845</v>
       </c>
       <c r="I36" t="n">
-        <v>0.00241962201678488</v>
+        <v>0.002419387872775514</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.00251307125674481</v>
+        <v>-0.002512782488793081</v>
       </c>
       <c r="K36" t="n">
         <v>0.01653834565353382</v>
@@ -3782,35 +3782,35 @@
         <v>0.01836469311858772</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02163467894590639</v>
+        <v>0.02163436800189394</v>
       </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="n">
-        <v>0.01618697863147914</v>
+        <v>0.01618695242347809</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.002194029879761195</v>
+        <v>-0.00219681877587275</v>
       </c>
       <c r="Y36" t="n">
         <v>0.01057870151114806</v>
       </c>
       <c r="Z36" t="n">
-        <v>-0.008582097175283885</v>
+        <v>-0.008581496023259839</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.008164431686577267</v>
+        <v>0.008165884646635384</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.008164431686577267</v>
+        <v>0.008165884646635384</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.008164431686577267</v>
+        <v>0.008165884646635384</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.008164431686577267</v>
+        <v>0.008165884646635384</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.008164431686577267</v>
+        <v>0.008165884646635384</v>
       </c>
     </row>
     <row r="37">
@@ -3825,7 +3825,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.004618597240743889</v>
+        <v>0.004617642328705692</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
@@ -3841,10 +3841,10 @@
         <v>0.001163787598551504</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01627775306711012</v>
+        <v>0.01627802100312084</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.007729962706184845</v>
+        <v>-0.007729929682368987</v>
       </c>
       <c r="K37" t="n">
         <v>0.003053531162141246</v>
@@ -3877,35 +3877,35 @@
         <v>0.004041049793641991</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.007844849737982267</v>
+        <v>-0.007846484810047709</v>
       </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="n">
-        <v>-0.001486169915446797</v>
+        <v>-0.001485924731436989</v>
       </c>
       <c r="X37" t="n">
-        <v>0.001624932736997309</v>
+        <v>0.001612723072508923</v>
       </c>
       <c r="Y37" t="n">
         <v>-0.01636385777455431</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.01273560089342403</v>
+        <v>0.01273066879722675</v>
       </c>
       <c r="AA37" t="n">
-        <v>-0.002953785334151413</v>
+        <v>-0.002948565621942624</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.002953785334151413</v>
+        <v>-0.002948565621942624</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.002953785334151413</v>
+        <v>-0.002948565621942624</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.002953785334151413</v>
+        <v>-0.002948565621942624</v>
       </c>
       <c r="AE37" t="n">
-        <v>-0.002953785334151413</v>
+        <v>-0.002948565621942624</v>
       </c>
     </row>
     <row r="38">
@@ -3920,7 +3920,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01880955790438231</v>
+        <v>0.01880913204836528</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
@@ -3936,10 +3936,10 @@
         <v>-0.01529779539591181</v>
       </c>
       <c r="I38" t="n">
-        <v>0.002800700368028014</v>
+        <v>0.002800885552035422</v>
       </c>
       <c r="J38" t="n">
-        <v>0.005237848874313541</v>
+        <v>0.005238059306448025</v>
       </c>
       <c r="K38" t="n">
         <v>-0.009995002863800112</v>
@@ -3972,35 +3972,35 @@
         <v>-0.003382486983299479</v>
       </c>
       <c r="U38" t="n">
-        <v>0.001885493787465003</v>
+        <v>0.001888789659596917</v>
       </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="n">
-        <v>0.00150422799616912</v>
+        <v>0.001504757628190305</v>
       </c>
       <c r="X38" t="n">
-        <v>0.00880821529632861</v>
+        <v>0.008820937504837499</v>
       </c>
       <c r="Y38" t="n">
         <v>-0.008281740811269632</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.003661489586459583</v>
+        <v>0.003661397138455885</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.008170213574808542</v>
+        <v>-0.008174859782994389</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.008170213574808542</v>
+        <v>-0.008174859782994389</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.008170213574808542</v>
+        <v>-0.008174859782994389</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.008170213574808542</v>
+        <v>-0.008174859782994389</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.008170213574808542</v>
+        <v>-0.008174859782994389</v>
       </c>
     </row>
     <row r="39">
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.009366786710671466</v>
+        <v>0.009365770742630827</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
@@ -4031,10 +4031,10 @@
         <v>-0.00346554925862197</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.002561875110475004</v>
+        <v>-0.00256205050248202</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.01297067526061774</v>
+        <v>-0.01297069926093004</v>
       </c>
       <c r="K39" t="n">
         <v>0.02588512826740513</v>
@@ -4067,35 +4067,35 @@
         <v>0.03984785352991414</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.002096131379895562</v>
+        <v>-0.002095748723880247</v>
       </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="n">
-        <v>0.006676763691070547</v>
+        <v>0.006678843627153745</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.01815247944609917</v>
+        <v>-0.01815457224618289</v>
       </c>
       <c r="Y39" t="n">
         <v>-0.02661168144846725</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.005993075471723018</v>
+        <v>-0.005995120079804802</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.02617183535087341</v>
+        <v>0.02617334139893365</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.02617183535087341</v>
+        <v>0.02617334139893365</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.02617183535087341</v>
+        <v>0.02617334139893365</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.02617183535087341</v>
+        <v>0.02617334139893365</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.02617183535087341</v>
+        <v>0.02617334139893365</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_3.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_spearman_3.xlsx
@@ -730,11 +730,11 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Oil retention [%]</t>
+          <t>Oil recovery [%]</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.047730824917233</v>
+        <v>0.2104262040650481</v>
       </c>
       <c r="D4" t="n">
         <v>0.003529454733178189</v>
@@ -744,88 +744,84 @@
         <v>-0.02338571440742857</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08800921676836866</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1765836888553475</v>
-      </c>
+        <v>-0.2642806099312244</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>0.04431756993270279</v>
+        <v>-0.1280718633948745</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2335884120935711</v>
+        <v>-0.1964280568784065</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02888201030728041</v>
+        <v>0.3037474974298998</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02888201030728041</v>
+        <v>0.3037474974298998</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02888201030728041</v>
+        <v>0.3037474974298998</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02888201030728041</v>
+        <v>0.3037474974298998</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02888201030728041</v>
+        <v>0.3037474974298998</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.04440878635235145</v>
+        <v>0.1121855135754205</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01546185229847409</v>
+        <v>0.4405880413995216</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01546185229847409</v>
+        <v>0.4405880413995216</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01546185229847409</v>
+        <v>0.4405880413995216</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01546185229847409</v>
+        <v>0.4405880413995216</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.002247959897972347</v>
+        <v>0.1753372289334891</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>0.01957059198282367</v>
+        <v>0.01957413524696541</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3095011949720478</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.9980585269303408</v>
-      </c>
+        <v>-0.744889899011596</v>
+      </c>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>0.2351140617565624</v>
+        <v>-0.5662765390990615</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.101643625185745</v>
+        <v>0.5803384714375387</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.101643625185745</v>
+        <v>0.5803384714375387</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.101643625185745</v>
+        <v>0.5803384714375387</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.101643625185745</v>
+        <v>0.5803384714375387</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.101643625185745</v>
+        <v>0.5803384714375387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Bagasse oil extraction efficiency [%]</t>
+          <t>Saccharification oil recovery [%]</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.08783123093724922</v>
+        <v>0.01823611810544472</v>
       </c>
       <c r="D5" t="n">
         <v>0.007570266830810672</v>
@@ -835,77 +831,73 @@
         <v>-0.01076934091077364</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.08341581328863253</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.008470465394818614</v>
-      </c>
+        <v>0.01213603104544124</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-0.03709537914781517</v>
+        <v>0.0009750144390005776</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01110647796718455</v>
+        <v>0.002200562398624183</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09362077286483089</v>
+        <v>-0.0108765650430626</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09362077286483089</v>
+        <v>-0.0108765650430626</v>
       </c>
       <c r="M5" t="n">
-        <v>0.09362077286483089</v>
+        <v>-0.0108765650430626</v>
       </c>
       <c r="N5" t="n">
-        <v>0.09362077286483089</v>
+        <v>-0.0108765650430626</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09362077286483089</v>
+        <v>-0.0108765650430626</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03841251302450052</v>
+        <v>-0.01313069860522794</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1697637390465495</v>
+        <v>-0.01976199218247968</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1697637390465495</v>
+        <v>-0.01976199218247968</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1697637390465495</v>
+        <v>-0.01976199218247968</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1697637390465495</v>
+        <v>-0.01976199218247968</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07684672397171328</v>
+        <v>-0.009709424356376973</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>0.002569427430777097</v>
+        <v>0.002574676806987072</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.2757315971412638</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>-0.01175957327038293</v>
-      </c>
+        <v>0.009221583920863356</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>-0.1731417273736691</v>
+        <v>0.01083576648143066</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1996081460323258</v>
+        <v>-0.007068442842737713</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.1996081460323258</v>
+        <v>-0.007068442842737713</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1996081460323258</v>
+        <v>-0.007068442842737713</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1996081460323258</v>
+        <v>-0.007068442842737713</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1996081460323258</v>
+        <v>-0.007068442842737713</v>
       </c>
     </row>
     <row r="6">
@@ -916,7 +908,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3745733247429329</v>
+        <v>0.3242075387603015</v>
       </c>
       <c r="D6" t="n">
         <v>0.0108233524329341</v>
@@ -926,77 +918,73 @@
         <v>0.005428415353136614</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02176340813453632</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-0.006998576439943056</v>
-      </c>
+        <v>-0.01301097738443909</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.5853824858792993</v>
+        <v>-0.582909353364374</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1092098525704877</v>
+        <v>0.1124443124511054</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01227868311514732</v>
+        <v>0.006649338025973521</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01227868311514732</v>
+        <v>0.006649338025973521</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01227868311514732</v>
+        <v>0.006649338025973521</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01227868311514732</v>
+        <v>0.006649338025973521</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01227868311514732</v>
+        <v>0.006649338025973521</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01548196401127856</v>
+        <v>0.009012925416517017</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.02901910138476405</v>
+        <v>0.01460217591208703</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02901910138476405</v>
+        <v>0.01460217591208703</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02901910138476405</v>
+        <v>0.01460217591208703</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02901910138476405</v>
+        <v>0.01460217591208703</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04042644526602805</v>
+        <v>0.02305013065000522</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>-0.02792284402891376</v>
+        <v>-0.02792244908489796</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02007452537898101</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>-0.0009923803596952143</v>
-      </c>
+        <v>0.02937915247116609</v>
+      </c>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>-0.238582775943311</v>
+        <v>-0.1341572036062881</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.003712417972496718</v>
+        <v>-0.01280729561629182</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.003712417972496718</v>
+        <v>-0.01280729561629182</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.003712417972496718</v>
+        <v>-0.01280729561629182</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.003712417972496718</v>
+        <v>-0.01280729561629182</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.003712417972496718</v>
+        <v>-0.01280729561629182</v>
       </c>
     </row>
     <row r="7">
@@ -1007,7 +995,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.002651539210061568</v>
+        <v>-0.008115056388602254</v>
       </c>
       <c r="D7" t="n">
         <v>-0.004311911308476452</v>
@@ -1017,77 +1005,73 @@
         <v>-0.009326854645074184</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00842628801705152</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.0088485200339408</v>
-      </c>
+        <v>0.01318308849532354</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>-0.002490862947634518</v>
+        <v>-0.002728070413122816</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01071838259099943</v>
+        <v>0.004657254344261936</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006488296195531847</v>
+        <v>-0.001490547899621916</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006488296195531847</v>
+        <v>-0.001490547899621916</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006488296195531847</v>
+        <v>-0.001490547899621916</v>
       </c>
       <c r="N7" t="n">
-        <v>0.006488296195531847</v>
+        <v>-0.001490547899621916</v>
       </c>
       <c r="O7" t="n">
-        <v>0.006488296195531847</v>
+        <v>-0.001490547899621916</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.009218006672720264</v>
+        <v>-0.01076104699044188</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002542265861690634</v>
+        <v>-0.01118707225548289</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002542265861690634</v>
+        <v>-0.01118707225548289</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002542265861690634</v>
+        <v>-0.01118707225548289</v>
       </c>
       <c r="T7" t="n">
-        <v>0.002542265861690634</v>
+        <v>-0.01118707225548289</v>
       </c>
       <c r="U7" t="n">
-        <v>0.00326717393876537</v>
+        <v>-0.00329982598799304</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.01725452862618114</v>
+        <v>0.01726215813048633</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.01543446445737858</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>-0.01073480961339238</v>
-      </c>
+        <v>-0.007674976626999064</v>
+      </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>-0.02475265539010621</v>
+        <v>-0.0121511724540469</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.009901705164068204</v>
+        <v>0.007373080422923215</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.009901705164068204</v>
+        <v>0.007373080422923215</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.009901705164068204</v>
+        <v>0.007373080422923215</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.009901705164068204</v>
+        <v>0.007373080422923215</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.009901705164068204</v>
+        <v>0.007373080422923215</v>
       </c>
     </row>
     <row r="8">
@@ -1098,7 +1082,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3516726042749041</v>
+        <v>0.3308801921152076</v>
       </c>
       <c r="D8" t="n">
         <v>0.9999999999999999</v>
@@ -1108,77 +1092,73 @@
         <v>0.001374112278964491</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0149941650477666</v>
-      </c>
-      <c r="H8" t="n">
-        <v>-0.001561537790461512</v>
-      </c>
+        <v>0.006563716486548658</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.7490543670821747</v>
+        <v>0.7466012694800508</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.1485172565297637</v>
+        <v>-0.128772256865207</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01611086368443455</v>
+        <v>-0.007554455438178216</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.01611086368443455</v>
+        <v>-0.007554455438178216</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.01611086368443455</v>
+        <v>-0.007554455438178216</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.01611086368443455</v>
+        <v>-0.007554455438178216</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.01611086368443455</v>
+        <v>-0.007554455438178216</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.009219434288777372</v>
+        <v>-0.003166365054654602</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.0298889126835565</v>
+        <v>-0.01089929400397176</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0298889126835565</v>
+        <v>-0.01089929400397176</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.0298889126835565</v>
+        <v>-0.01089929400397176</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.0298889126835565</v>
+        <v>-0.01089929400397176</v>
       </c>
       <c r="U8" t="n">
-        <v>0.021140415822124</v>
+        <v>0.01752688447707538</v>
       </c>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>0.009687636675505467</v>
+        <v>0.009686452515458098</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.03765566665822666</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.003045803641832145</v>
-      </c>
+        <v>-0.02106413844256554</v>
+      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="n">
-        <v>0.2945449216057968</v>
+        <v>0.1669448596377943</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.01863663837746554</v>
+        <v>0.01107891817115672</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01863663837746554</v>
+        <v>0.01107891817115672</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.01863663837746554</v>
+        <v>0.01107891817115672</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01863663837746554</v>
+        <v>0.01107891817115672</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.01863663837746554</v>
+        <v>0.01107891817115672</v>
       </c>
     </row>
     <row r="9">
@@ -1193,7 +1173,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6635503125580123</v>
+        <v>0.7126048729841947</v>
       </c>
       <c r="D9" t="n">
         <v>0.01752971628518865</v>
@@ -1203,77 +1183,73 @@
         <v>-0.00192445975697839</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004275982251039289</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.000364514126580565</v>
-      </c>
+        <v>0.005867485962699438</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>0.008653490362139615</v>
+        <v>0.00834372878174915</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.01803638806418953</v>
+        <v>-0.007079799040431358</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.002746737613869504</v>
+        <v>-0.01431415314856612</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.002746737613869504</v>
+        <v>-0.01431415314856612</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.002746737613869504</v>
+        <v>-0.01431415314856612</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.002746737613869504</v>
+        <v>-0.01431415314856612</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.002746737613869504</v>
+        <v>-0.01431415314856612</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.002214662392586495</v>
+        <v>-0.004394607055784282</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.007030070873202833</v>
+        <v>-0.02171301830852073</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.007030070873202833</v>
+        <v>-0.02171301830852073</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.007030070873202833</v>
+        <v>-0.02171301830852073</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.007030070873202833</v>
+        <v>-0.02171301830852073</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.8967865177329837</v>
+        <v>-0.8928177667207104</v>
       </c>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>0.009566071294642849</v>
+        <v>0.009553007134120285</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.01619171949566878</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>-0.002616474632658985</v>
-      </c>
+        <v>-0.002156964182278567</v>
+      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>-0.00194321950172878</v>
+        <v>0.02691638814865552</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.009605437920217516</v>
+        <v>0.0006054166322166652</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.009605437920217516</v>
+        <v>0.0006054166322166652</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.009605437920217516</v>
+        <v>0.0006054166322166652</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.009605437920217516</v>
+        <v>0.0006054166322166652</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.009605437920217516</v>
+        <v>0.0006054166322166652</v>
       </c>
     </row>
     <row r="10">
@@ -1288,7 +1264,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0188457426098297</v>
+        <v>0.01824498428179937</v>
       </c>
       <c r="D10" t="n">
         <v>0.003197859583914383</v>
@@ -1298,77 +1274,73 @@
         <v>-0.02962203718488148</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02899444618377784</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.03064438672977546</v>
-      </c>
+        <v>0.02219683336787333</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-0.004682604091304162</v>
+        <v>-0.007108058684322346</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.01008622539663594</v>
+        <v>0.004915773475378259</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0219209725568389</v>
+        <v>0.01521548787261951</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0219209725568389</v>
+        <v>0.01521548787261951</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0219209725568389</v>
+        <v>0.01521548787261951</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0219209725568389</v>
+        <v>0.01521548787261951</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0219209725568389</v>
+        <v>0.01521548787261951</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.02996448417457936</v>
+        <v>-0.02790028911601156</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01375852624634105</v>
+        <v>0.005604806624192264</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01375852624634105</v>
+        <v>0.005604806624192264</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01375852624634105</v>
+        <v>0.005604806624192264</v>
       </c>
       <c r="T10" t="n">
-        <v>0.01375852624634105</v>
+        <v>0.005604806624192264</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.001356994086312331</v>
+        <v>0.003682812051312482</v>
       </c>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>0.005849864873994594</v>
+        <v>0.005854869546194781</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.01004700971388039</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.004825716577028663</v>
-      </c>
+        <v>-0.01678044614321784</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>-0.006060379058415162</v>
+        <v>-0.01949805639592225</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.01920050697602027</v>
+        <v>0.02370171973206878</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01920050697602027</v>
+        <v>0.02370171973206878</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01920050697602027</v>
+        <v>0.02370171973206878</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01920050697602027</v>
+        <v>0.02370171973206878</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01920050697602027</v>
+        <v>0.02370171973206878</v>
       </c>
     </row>
     <row r="11">
@@ -1383,7 +1355,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0181052175882087</v>
+        <v>0.01549602868384115</v>
       </c>
       <c r="D11" t="n">
         <v>0.007627171025086841</v>
@@ -1393,77 +1365,73 @@
         <v>-0.001790708231628329</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0006174798006991919</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-0.001071932202877288</v>
-      </c>
+        <v>0.008392445039697801</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>0.008730301501212059</v>
+        <v>0.009340076821603071</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.005149466854753365</v>
+        <v>0.004554246339832593</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.001421418968856759</v>
+        <v>-0.008027067489082699</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.001421418968856759</v>
+        <v>-0.008027067489082699</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.001421418968856759</v>
+        <v>-0.008027067489082699</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.001421418968856759</v>
+        <v>-0.008027067489082699</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.001421418968856759</v>
+        <v>-0.008027067489082699</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.002008707344348294</v>
+        <v>-0.005190326607613063</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.00319211475168459</v>
+        <v>-0.0099773950230958</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.00319211475168459</v>
+        <v>-0.0099773950230958</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.00319211475168459</v>
+        <v>-0.0099773950230958</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.00319211475168459</v>
+        <v>-0.0099773950230958</v>
       </c>
       <c r="U11" t="n">
-        <v>0.006598974792117368</v>
+        <v>0.001106517164260686</v>
       </c>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>0.01836942659077706</v>
+        <v>0.01837861167914447</v>
       </c>
       <c r="X11" t="n">
-        <v>0.008873154786926192</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>-0.01424320290572811</v>
-      </c>
+        <v>0.009864599626583984</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>0.002972746102909844</v>
+        <v>0.0009126544685061787</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.008877163171086526</v>
+        <v>-0.01024876706595068</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.008877163171086526</v>
+        <v>-0.01024876706595068</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.008877163171086526</v>
+        <v>-0.01024876706595068</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.008877163171086526</v>
+        <v>-0.01024876706595068</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.008877163171086526</v>
+        <v>-0.01024876706595068</v>
       </c>
     </row>
     <row r="12">
@@ -1478,7 +1446,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.09969899237195967</v>
+        <v>0.08513543812541752</v>
       </c>
       <c r="D12" t="n">
         <v>-0.004942293317691732</v>
@@ -1488,77 +1456,73 @@
         <v>-0.01178867298354692</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01238266580730663</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.01309334375573375</v>
-      </c>
+        <v>0.006688192779527711</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>0.003578666639146665</v>
+        <v>0.002768082350723294</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.02863119028203516</v>
+        <v>-0.0004432275550587849</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01189987065199482</v>
+        <v>0.01814400043776002</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01189987065199482</v>
+        <v>0.01814400043776002</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01189987065199482</v>
+        <v>0.01814400043776002</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01189987065199482</v>
+        <v>0.01814400043776002</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01189987065199482</v>
+        <v>0.01814400043776002</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01198640707145628</v>
+        <v>-0.009579310847172432</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01004867291394692</v>
+        <v>0.01736368341454733</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01004867291394692</v>
+        <v>0.01736368341454733</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01004867291394692</v>
+        <v>0.01736368341454733</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01004867291394692</v>
+        <v>0.01736368341454733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09906664164504328</v>
+        <v>0.08721053475242138</v>
       </c>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>0.0283660825746433</v>
+        <v>0.02836750721470029</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.01301605972064239</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.01067973825118953</v>
-      </c>
+        <v>-0.01923135638525425</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="n">
-        <v>-0.01023645813745832</v>
+        <v>-0.01781197568847902</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01512144713285788</v>
+        <v>0.02089862608394504</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01512144713285788</v>
+        <v>0.02089862608394504</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01512144713285788</v>
+        <v>0.02089862608394504</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.01512144713285788</v>
+        <v>0.02089862608394504</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.01512144713285788</v>
+        <v>0.02089862608394504</v>
       </c>
     </row>
     <row r="13">
@@ -1569,7 +1533,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.450924427764977</v>
+        <v>-0.3946711033388441</v>
       </c>
       <c r="D13" t="n">
         <v>-0.002908193588327743</v>
@@ -1579,77 +1543,73 @@
         <v>-0.01724673419386937</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01927422201896888</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.01952371537294861</v>
-      </c>
+        <v>0.0112031650241266</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>0.00106683450667338</v>
+        <v>-0.002863393842535753</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.01453981385436839</v>
+        <v>-0.01011316963486629</v>
       </c>
       <c r="K13" t="n">
-        <v>0.01660424312816972</v>
+        <v>0.0189357675734307</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01660424312816972</v>
+        <v>0.0189357675734307</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01660424312816972</v>
+        <v>0.0189357675734307</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01660424312816972</v>
+        <v>0.0189357675734307</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01660424312816972</v>
+        <v>0.0189357675734307</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01747215410688616</v>
+        <v>-0.01458526349541054</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01641982203279288</v>
+        <v>0.01450343107613724</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01641982203279288</v>
+        <v>0.01450343107613724</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01641982203279288</v>
+        <v>0.01450343107613724</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01641982203279288</v>
+        <v>0.01450343107613724</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.07259697295362125</v>
+        <v>-0.05631093354843733</v>
       </c>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>-0.009587133503485338</v>
+        <v>-0.009595909055836361</v>
       </c>
       <c r="X13" t="n">
-        <v>0.00249734400389376</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.01275411679816467</v>
-      </c>
+        <v>-0.0235742827029713</v>
+      </c>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>0.008969070598762823</v>
+        <v>-0.01093982846959314</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.004111346180453846</v>
+        <v>0.02293395634135825</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.004111346180453846</v>
+        <v>0.02293395634135825</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.004111346180453846</v>
+        <v>0.02293395634135825</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.004111346180453846</v>
+        <v>0.02293395634135825</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.004111346180453846</v>
+        <v>0.02293395634135825</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1624,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.01969953957198158</v>
+        <v>-0.01516704684668187</v>
       </c>
       <c r="D14" t="n">
         <v>-0.03053229702929188</v>
@@ -1674,77 +1634,73 @@
         <v>-0.007051272186050886</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007442960073718401</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0074490650019626</v>
-      </c>
+        <v>0.005015619848624794</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>-0.01870844186833767</v>
+        <v>-0.02037780830311233</v>
       </c>
       <c r="J14" t="n">
-        <v>0.005693016717421569</v>
+        <v>0.01410042142231812</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002137764661510586</v>
+        <v>0.002540063813602552</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002137764661510586</v>
+        <v>0.002540063813602552</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002137764661510586</v>
+        <v>0.002540063813602552</v>
       </c>
       <c r="N14" t="n">
-        <v>0.002137764661510586</v>
+        <v>0.002540063813602552</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002137764661510586</v>
+        <v>0.002540063813602552</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.007527340237093608</v>
+        <v>-0.006772688718907548</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.001856561930262477</v>
+        <v>-0.00234734274989371</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.001856561930262477</v>
+        <v>-0.00234734274989371</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.001856561930262477</v>
+        <v>-0.00234734274989371</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.001856561930262477</v>
+        <v>-0.00234734274989371</v>
       </c>
       <c r="U14" t="n">
-        <v>0.002694428747841816</v>
+        <v>0.0056345074893803</v>
       </c>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="n">
-        <v>-0.0001477842299113692</v>
+        <v>-0.0001386528055461122</v>
       </c>
       <c r="X14" t="n">
-        <v>0.00952521177300847</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>-0.003784385335375413</v>
-      </c>
+        <v>0.003589474895578996</v>
+      </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>-0.0127555473902219</v>
+        <v>-0.006728930669157226</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.006240156729606269</v>
+        <v>-0.0003922048476881938</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.006240156729606269</v>
+        <v>-0.0003922048476881938</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.006240156729606269</v>
+        <v>-0.0003922048476881938</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.006240156729606269</v>
+        <v>-0.0003922048476881938</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.006240156729606269</v>
+        <v>-0.0003922048476881938</v>
       </c>
     </row>
     <row r="15">
@@ -1759,7 +1715,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0004906833796273351</v>
+        <v>-7.478246699129866e-05</v>
       </c>
       <c r="D15" t="n">
         <v>0.002746113805844552</v>
@@ -1769,77 +1725,73 @@
         <v>-0.00617382725495309</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005791300359652013</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.005684687939387516</v>
-      </c>
+        <v>0.003251850850074033</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>0.0111021851160874</v>
+        <v>0.01054937024597481</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.007596493036804144</v>
+        <v>0.008078852843390672</v>
       </c>
       <c r="K15" t="n">
-        <v>0.008316471980658879</v>
+        <v>0.0087652850546114</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008316471980658879</v>
+        <v>0.0087652850546114</v>
       </c>
       <c r="M15" t="n">
-        <v>0.008316471980658879</v>
+        <v>0.0087652850546114</v>
       </c>
       <c r="N15" t="n">
-        <v>0.008316471980658879</v>
+        <v>0.0087652850546114</v>
       </c>
       <c r="O15" t="n">
-        <v>0.008316471980658879</v>
+        <v>0.0087652850546114</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.005948163309926531</v>
+        <v>-0.00568216352328654</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0100593350583734</v>
+        <v>0.007017567256702688</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0100593350583734</v>
+        <v>0.007017567256702688</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0100593350583734</v>
+        <v>0.007017567256702688</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0100593350583734</v>
+        <v>0.007017567256702688</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.01050101662829269</v>
+        <v>-0.00201669176066767</v>
       </c>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>0.002615112680604507</v>
+        <v>0.002622294536891781</v>
       </c>
       <c r="X15" t="n">
-        <v>0.001349387285975491</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.001504612284184491</v>
-      </c>
+        <v>-0.000514927700597108</v>
+      </c>
+      <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
-        <v>0.009042939913717594</v>
+        <v>-0.0008666877466675096</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.004285253643410145</v>
+        <v>0.002695677803827112</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.004285253643410145</v>
+        <v>0.002695677803827112</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.004285253643410145</v>
+        <v>0.002695677803827112</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.004285253643410145</v>
+        <v>0.002695677803827112</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.004285253643410145</v>
+        <v>0.002695677803827112</v>
       </c>
     </row>
     <row r="16">
@@ -1854,7 +1806,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.006747253709890147</v>
+        <v>0.005313709844548393</v>
       </c>
       <c r="D16" t="n">
         <v>-0.004229653321186132</v>
@@ -1864,77 +1816,73 @@
         <v>-0.003009187128367485</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004308301228332048</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.004056001122240045</v>
-      </c>
+        <v>0.003388770471550819</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>-0.01611449354057974</v>
+        <v>-0.01543812935352517</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.01448108925991935</v>
+        <v>-0.012305325601129</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01865071015402841</v>
+        <v>0.02915813732632549</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01865071015402841</v>
+        <v>0.02915813732632549</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01865071015402841</v>
+        <v>0.02915813732632549</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01865071015402841</v>
+        <v>0.02915813732632549</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01865071015402841</v>
+        <v>0.02915813732632549</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.001408015448320618</v>
+        <v>-0.001059254538370181</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.02816518327060732</v>
+        <v>0.03349864991594599</v>
       </c>
       <c r="R16" t="n">
-        <v>0.02816518327060732</v>
+        <v>0.03349864991594599</v>
       </c>
       <c r="S16" t="n">
-        <v>0.02816518327060732</v>
+        <v>0.03349864991594599</v>
       </c>
       <c r="T16" t="n">
-        <v>0.02816518327060732</v>
+        <v>0.03349864991594599</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003040815913705616</v>
+        <v>0.01150142062005682</v>
       </c>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>0.01412146722085869</v>
+        <v>0.01412077707683108</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.0114141650645666</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.001170574030822961</v>
-      </c>
+        <v>-0.007692529075701162</v>
+      </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
-        <v>-0.01500941724037669</v>
+        <v>-0.01655987144639486</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.0106198674647947</v>
+        <v>0.01552042602881704</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0106198674647947</v>
+        <v>0.01552042602881704</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.0106198674647947</v>
+        <v>0.01552042602881704</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.0106198674647947</v>
+        <v>0.01552042602881704</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.0106198674647947</v>
+        <v>0.01552042602881704</v>
       </c>
     </row>
     <row r="17">
@@ -1949,7 +1897,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.0008308550732342028</v>
+        <v>0.002065790962631638</v>
       </c>
       <c r="D17" t="n">
         <v>0.001087392523495701</v>
@@ -1959,77 +1907,73 @@
         <v>-0.006032042929281716</v>
       </c>
       <c r="G17" t="n">
-        <v>0.005566316094652643</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.008068310050732401</v>
-      </c>
+        <v>-0.0003424265416970616</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>-0.007696858387874335</v>
+        <v>-0.01029013049160522</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0005060374291037848</v>
+        <v>-0.001620792933694096</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001862357834494313</v>
+        <v>0.001097039083881563</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001862357834494313</v>
+        <v>0.001097039083881563</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001862357834494313</v>
+        <v>0.001097039083881563</v>
       </c>
       <c r="N17" t="n">
-        <v>0.001862357834494313</v>
+        <v>0.001097039083881563</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001862357834494313</v>
+        <v>0.001097039083881563</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.006254499706179987</v>
+        <v>-0.005289489331579572</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0009193013167720526</v>
+        <v>0.002101236564049462</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0009193013167720526</v>
+        <v>0.002101236564049462</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0009193013167720526</v>
+        <v>0.002101236564049462</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0009193013167720526</v>
+        <v>0.002101236564049462</v>
       </c>
       <c r="U17" t="n">
-        <v>0.02851107469312726</v>
+        <v>0.01567331937893278</v>
       </c>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>0.01909930895597236</v>
+        <v>0.01908661564346462</v>
       </c>
       <c r="X17" t="n">
-        <v>0.02244069488162779</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.01156087102243484</v>
-      </c>
+        <v>-0.01870528826821153</v>
+      </c>
+      <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
-        <v>0.008937542565501701</v>
+        <v>-0.01677744134309765</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.008987915207516609</v>
+        <v>0.01456855143074205</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.008987915207516609</v>
+        <v>0.01456855143074205</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.008987915207516609</v>
+        <v>0.01456855143074205</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.008987915207516609</v>
+        <v>0.01456855143074205</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.008987915207516609</v>
+        <v>0.01456855143074205</v>
       </c>
     </row>
     <row r="18">
@@ -2040,7 +1984,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.006493129699725188</v>
+        <v>0.007005654040226161</v>
       </c>
       <c r="D18" t="n">
         <v>1.123824044952962e-05</v>
@@ -2050,77 +1994,73 @@
         <v>-0.01226184413847376</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0172743701949748</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.017880824971233</v>
-      </c>
+        <v>-0.001744885413795416</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>-0.001580266047210642</v>
+        <v>-0.008595462103818483</v>
       </c>
       <c r="J18" t="n">
-        <v>0.002019101220204597</v>
+        <v>0.002319660387745397</v>
       </c>
       <c r="K18" t="n">
-        <v>0.009667006754680268</v>
+        <v>0.02333848566953942</v>
       </c>
       <c r="L18" t="n">
-        <v>0.009667006754680268</v>
+        <v>0.02333848566953942</v>
       </c>
       <c r="M18" t="n">
-        <v>0.009667006754680268</v>
+        <v>0.02333848566953942</v>
       </c>
       <c r="N18" t="n">
-        <v>0.009667006754680268</v>
+        <v>0.02333848566953942</v>
       </c>
       <c r="O18" t="n">
-        <v>0.009667006754680268</v>
+        <v>0.02333848566953942</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01436906841476274</v>
+        <v>-0.006380499423219976</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.006293785787751431</v>
+        <v>0.02689008904360356</v>
       </c>
       <c r="R18" t="n">
-        <v>0.006293785787751431</v>
+        <v>0.02689008904360356</v>
       </c>
       <c r="S18" t="n">
-        <v>0.006293785787751431</v>
+        <v>0.02689008904360356</v>
       </c>
       <c r="T18" t="n">
-        <v>0.006293785787751431</v>
+        <v>0.02689008904360356</v>
       </c>
       <c r="U18" t="n">
-        <v>0.006200194232156574</v>
+        <v>0.02519403403176135</v>
       </c>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>-0.01218738365549535</v>
+        <v>-0.01219200442368018</v>
       </c>
       <c r="X18" t="n">
-        <v>0.01170673784426951</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.03970264718810588</v>
-      </c>
+        <v>-0.02042763345710533</v>
+      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
-        <v>0.02346812167472486</v>
+        <v>-0.01290151069206043</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.001517292924691717</v>
+        <v>0.02458366619934664</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.001517292924691717</v>
+        <v>0.02458366619934664</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.001517292924691717</v>
+        <v>0.02458366619934664</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.001517292924691717</v>
+        <v>0.02458366619934664</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.001517292924691717</v>
+        <v>0.02458366619934664</v>
       </c>
     </row>
     <row r="19">
@@ -2135,7 +2075,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.003362830694513227</v>
+        <v>0.002962723318508932</v>
       </c>
       <c r="D19" t="n">
         <v>0.005544996989799878</v>
@@ -2145,77 +2085,73 @@
         <v>-0.01647914897916596</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01497369400694776</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.01502727324109093</v>
-      </c>
+        <v>0.01621496119259845</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.01750269718010788</v>
+        <v>0.01790157892406316</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01592050583194878</v>
+        <v>0.00608826256579529</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01030659977226399</v>
+        <v>0.0003562661902506475</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01030659977226399</v>
+        <v>0.0003562661902506475</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01030659977226399</v>
+        <v>0.0003562661902506475</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01030659977226399</v>
+        <v>0.0003562661902506475</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01030659977226399</v>
+        <v>0.0003562661902506475</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.01627616685904667</v>
+        <v>-0.0180093600483744</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.002980425911217036</v>
+        <v>-0.00917058555082342</v>
       </c>
       <c r="R19" t="n">
-        <v>0.002980425911217036</v>
+        <v>-0.00917058555082342</v>
       </c>
       <c r="S19" t="n">
-        <v>0.002980425911217036</v>
+        <v>-0.00917058555082342</v>
       </c>
       <c r="T19" t="n">
-        <v>0.002980425911217036</v>
+        <v>-0.00917058555082342</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.02733088328589128</v>
+        <v>-0.0258086676243467</v>
       </c>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>0.006952232246089289</v>
+        <v>0.006963892982555718</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.02207457909098316</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>-0.008198073159922924</v>
-      </c>
+        <v>0.002007714896308596</v>
+      </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
-        <v>-0.009726780101071203</v>
+        <v>-0.003233970561358822</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.01865269466610778</v>
+        <v>0.0003633461905338476</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.01865269466610778</v>
+        <v>0.0003633461905338476</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01865269466610778</v>
+        <v>0.0003633461905338476</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.01865269466610778</v>
+        <v>0.0003633461905338476</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.01865269466610778</v>
+        <v>0.0003633461905338476</v>
       </c>
     </row>
     <row r="20">
@@ -2230,7 +2166,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.01191979353279174</v>
+        <v>-0.01049998361999934</v>
       </c>
       <c r="D20" t="n">
         <v>-0.0007818678072747121</v>
@@ -2240,77 +2176,73 @@
         <v>-0.01435866739034669</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0149357125654285</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.01584765816990633</v>
-      </c>
+        <v>0.009102040396081616</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>0.005443865017754601</v>
+        <v>0.001566256862650274</v>
       </c>
       <c r="J20" t="n">
-        <v>-8.646446760591414e-05</v>
+        <v>-0.01202355512501287</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00629648473185939</v>
+        <v>0.002645581161823246</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00629648473185939</v>
+        <v>0.002645581161823246</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00629648473185939</v>
+        <v>0.002645581161823246</v>
       </c>
       <c r="N20" t="n">
-        <v>0.00629648473185939</v>
+        <v>0.002645581161823246</v>
       </c>
       <c r="O20" t="n">
-        <v>0.00629648473185939</v>
+        <v>0.002645581161823246</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.0153818825672753</v>
+        <v>-0.01275223395008936</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.0004331198573247943</v>
+        <v>-0.001654357602174304</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.0004331198573247943</v>
+        <v>-0.001654357602174304</v>
       </c>
       <c r="S20" t="n">
-        <v>-0.0004331198573247943</v>
+        <v>-0.001654357602174304</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.0004331198573247943</v>
+        <v>-0.001654357602174304</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01991474926106792</v>
+        <v>0.01629027492361099</v>
       </c>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>0.006248452473938098</v>
+        <v>0.006246938841877553</v>
       </c>
       <c r="X20" t="n">
-        <v>0.004920834244833369</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.01457264717490588</v>
-      </c>
+        <v>-0.01594611154984446</v>
+      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="n">
-        <v>0.003098039067921562</v>
+        <v>-0.02365580897823236</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.0009513616700544666</v>
+        <v>0.01435947071837883</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.0009513616700544666</v>
+        <v>0.01435947071837883</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.0009513616700544666</v>
+        <v>0.01435947071837883</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.0009513616700544666</v>
+        <v>0.01435947071837883</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.0009513616700544666</v>
+        <v>0.01435947071837883</v>
       </c>
     </row>
     <row r="21">
@@ -2321,7 +2253,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.0186905875956235</v>
+        <v>-0.01923537225741489</v>
       </c>
       <c r="D21" t="n">
         <v>0.002703635724145429</v>
@@ -2331,77 +2263,73 @@
         <v>-0.01573545672541827</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01395645329425813</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.01596776022271041</v>
-      </c>
+        <v>0.01168338133133525</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>0.01924329993773199</v>
+        <v>0.01834406578976263</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.02266375822516937</v>
+        <v>0.009995836701820977</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01584654159386166</v>
+        <v>0.008592469783698792</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01584654159386166</v>
+        <v>0.008592469783698792</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01584654159386166</v>
+        <v>0.008592469783698792</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01584654159386166</v>
+        <v>0.008592469783698792</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01584654159386166</v>
+        <v>0.008592469783698792</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.01520350236814009</v>
+        <v>-0.0150711575308463</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01458498355939934</v>
+        <v>0.004623998392959935</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01458498355939934</v>
+        <v>0.004623998392959935</v>
       </c>
       <c r="S21" t="n">
-        <v>0.01458498355939934</v>
+        <v>0.004623998392959935</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01458498355939934</v>
+        <v>0.004623998392959935</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01455466954253609</v>
+        <v>0.02771888059675522</v>
       </c>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
-        <v>0.003954699806187992</v>
+        <v>0.003943324669732986</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.01927039977881599</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.01036382643055305</v>
-      </c>
+        <v>-0.001536124573444983</v>
+      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="n">
-        <v>0.001421155064846203</v>
+        <v>0.002233658873346355</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.02232071426882857</v>
+        <v>0.005485700859428034</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.02232071426882857</v>
+        <v>0.005485700859428034</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.02232071426882857</v>
+        <v>0.005485700859428034</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.02232071426882857</v>
+        <v>0.005485700859428034</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.02232071426882857</v>
+        <v>0.005485700859428034</v>
       </c>
     </row>
     <row r="22">
@@ -2412,7 +2340,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.02518016299120652</v>
+        <v>-0.02557624460704978</v>
       </c>
       <c r="D22" t="n">
         <v>-0.007685123731404949</v>
@@ -2422,77 +2350,73 @@
         <v>0.002413399872535995</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0002566278822651152</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.002924413364976535</v>
-      </c>
+        <v>-0.001713020804520832</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>-0.008865614946624597</v>
+        <v>-0.009506528636261145</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.01847069419430183</v>
+        <v>0.01970744892742031</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.01912118994884759</v>
+        <v>-0.0277607126944285</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.01912118994884759</v>
+        <v>-0.0277607126944285</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.01912118994884759</v>
+        <v>-0.0277607126944285</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.01912118994884759</v>
+        <v>-0.0277607126944285</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.01912118994884759</v>
+        <v>-0.0277607126944285</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.0003533483661339347</v>
+        <v>-0.0001861027274441091</v>
       </c>
       <c r="Q22" t="n">
-        <v>-0.0304108875524355</v>
+        <v>-0.03401766664070666</v>
       </c>
       <c r="R22" t="n">
-        <v>-0.0304108875524355</v>
+        <v>-0.03401766664070666</v>
       </c>
       <c r="S22" t="n">
-        <v>-0.0304108875524355</v>
+        <v>-0.03401766664070666</v>
       </c>
       <c r="T22" t="n">
-        <v>-0.0304108875524355</v>
+        <v>-0.03401766664070666</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01607851705952656</v>
+        <v>0.02989377297175091</v>
       </c>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="n">
-        <v>0.001594459551778382</v>
+        <v>0.001597297983891919</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.01330438862817554</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>-0.002327976861119074</v>
-      </c>
+        <v>0.002645401737816069</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="n">
-        <v>-0.01405424273816971</v>
+        <v>-0.003871811578872462</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.006863182738527308</v>
+        <v>-0.008868222114728883</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.006863182738527308</v>
+        <v>-0.008868222114728883</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.006863182738527308</v>
+        <v>-0.008868222114728883</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.006863182738527308</v>
+        <v>-0.008868222114728883</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.006863182738527308</v>
+        <v>-0.008868222114728883</v>
       </c>
     </row>
     <row r="23">
@@ -2503,7 +2427,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.002113990740559629</v>
+        <v>-0.0003141143165645726</v>
       </c>
       <c r="D23" t="n">
         <v>-0.001372140150885606</v>
@@ -2513,77 +2437,73 @@
         <v>0.009167024622680984</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.008833688225347528</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-0.01048538873941555</v>
-      </c>
+        <v>-0.007664383602575342</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>-0.001675460707018428</v>
+        <v>-0.00173860125354405</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.01065226201224193</v>
+        <v>0.01316636144615354</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.009785861959434478</v>
+        <v>-0.01033344895733796</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.009785861959434478</v>
+        <v>-0.01033344895733796</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.009785861959434478</v>
+        <v>-0.01033344895733796</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.009785861959434478</v>
+        <v>-0.01033344895733796</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.009785861959434478</v>
+        <v>-0.01033344895733796</v>
       </c>
       <c r="P23" t="n">
-        <v>0.008460020690400827</v>
+        <v>0.007758701014348039</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.008151919430076777</v>
+        <v>-0.007251654338066173</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.008151919430076777</v>
+        <v>-0.007251654338066173</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.008151919430076777</v>
+        <v>-0.007251654338066173</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.008151919430076777</v>
+        <v>-0.007251654338066173</v>
       </c>
       <c r="U23" t="n">
-        <v>0.008984896391611494</v>
+        <v>0.001901874796074992</v>
       </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="n">
-        <v>-0.002247559577902383</v>
+        <v>-0.002253813402152536</v>
       </c>
       <c r="X23" t="n">
-        <v>0.002759128046365121</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>-0.007362892806515712</v>
-      </c>
+        <v>0.01118223087928923</v>
+      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
-        <v>0.0008408748816349951</v>
+        <v>0.009962340206493607</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.003806292920251716</v>
+        <v>-0.01137184231087369</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.003806292920251716</v>
+        <v>-0.01137184231087369</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.003806292920251716</v>
+        <v>-0.01137184231087369</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.003806292920251716</v>
+        <v>-0.01137184231087369</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.003806292920251716</v>
+        <v>-0.01137184231087369</v>
       </c>
     </row>
     <row r="24">
@@ -2598,7 +2518,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.01230557137222285</v>
+        <v>-0.009043468393738735</v>
       </c>
       <c r="D24" t="n">
         <v>0.01651558885262355</v>
@@ -2608,77 +2528,73 @@
         <v>-0.007428013161120526</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008520226228809047</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.007708004468320179</v>
-      </c>
+        <v>0.006587161799486471</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>0.01419456555978262</v>
+        <v>0.01307867303514692</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.002976448684129816</v>
+        <v>-0.01061480028043641</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01096631304665252</v>
+        <v>0.0156635324665413</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01096631304665252</v>
+        <v>0.0156635324665413</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01096631304665252</v>
+        <v>0.0156635324665413</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01096631304665252</v>
+        <v>0.0156635324665413</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01096631304665252</v>
+        <v>0.0156635324665413</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.007436904105476163</v>
+        <v>-0.005912436044497441</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01248390942735638</v>
+        <v>0.01664922536996901</v>
       </c>
       <c r="R24" t="n">
-        <v>0.01248390942735638</v>
+        <v>0.01664922536996901</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01248390942735638</v>
+        <v>0.01664922536996901</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01248390942735638</v>
+        <v>0.01664922536996901</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02492761870970301</v>
+        <v>0.02838854465554178</v>
       </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="n">
-        <v>0.006860226418409054</v>
+        <v>0.00685285678611427</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.005719843140793725</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.01078364145534566</v>
-      </c>
+        <v>-0.002202982168119286</v>
+      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
-        <v>0.002006673296266932</v>
+        <v>-0.01262873455314938</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.007631384657255385</v>
+        <v>0.007224540576981622</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.007631384657255385</v>
+        <v>0.007224540576981622</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.007631384657255385</v>
+        <v>0.007224540576981622</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.007631384657255385</v>
+        <v>0.007224540576981622</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.007631384657255385</v>
+        <v>0.007224540576981622</v>
       </c>
     </row>
     <row r="25">
@@ -2689,7 +2605,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.01488410526736421</v>
+        <v>-0.011039375097575</v>
       </c>
       <c r="D25" t="n">
         <v>-0.02022354388094175</v>
@@ -2699,77 +2615,73 @@
         <v>-0.02210615282024611</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0234986700279468</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.02447870469114818</v>
-      </c>
+        <v>0.01577962623118505</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>-0.0008306034572241381</v>
+        <v>-0.003106613308264532</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.002749612194669827</v>
+        <v>-0.01830787552323865</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01916914847876594</v>
+        <v>0.01909702722788109</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01916914847876594</v>
+        <v>0.01909702722788109</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01916914847876594</v>
+        <v>0.01909702722788109</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01916914847876594</v>
+        <v>0.01909702722788109</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01916914847876594</v>
+        <v>0.01909702722788109</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.02292151637286065</v>
+        <v>-0.01954183518167341</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01403220728128829</v>
+        <v>0.01167830341113213</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01403220728128829</v>
+        <v>0.01167830341113213</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01403220728128829</v>
+        <v>0.01167830341113213</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01403220728128829</v>
+        <v>0.01167830341113213</v>
       </c>
       <c r="U25" t="n">
-        <v>0.005123426605060027</v>
+        <v>0.006340351933614077</v>
       </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="n">
-        <v>0.01789863642794546</v>
+        <v>0.0178968075318723</v>
       </c>
       <c r="X25" t="n">
-        <v>0.003570661390826455</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.01503642597745704</v>
-      </c>
+        <v>-0.0157302350932094</v>
+      </c>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="n">
-        <v>-0.00998272705530908</v>
+        <v>-0.01654320392572815</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.008483743251349729</v>
+        <v>0.02084465814578632</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.008483743251349729</v>
+        <v>0.02084465814578632</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.008483743251349729</v>
+        <v>0.02084465814578632</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.008483743251349729</v>
+        <v>0.02084465814578632</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.008483743251349729</v>
+        <v>0.02084465814578632</v>
       </c>
     </row>
     <row r="26">
@@ -2784,7 +2696,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01295989165439567</v>
+        <v>0.02065158802606352</v>
       </c>
       <c r="D26" t="n">
         <v>-0.01490230658009226</v>
@@ -2794,77 +2706,73 @@
         <v>-0.01876065060642602</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0182169650486786</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.02160733478429339</v>
-      </c>
+        <v>0.01125282985811319</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>-0.007146287805851511</v>
+        <v>-0.01122901196916048</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.006002013562307972</v>
+        <v>-0.02276257139479057</v>
       </c>
       <c r="K26" t="n">
-        <v>0.01546246727449869</v>
+        <v>0.01638244779129791</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01546246727449869</v>
+        <v>0.01638244779129791</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01546246727449869</v>
+        <v>0.01638244779129791</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01546246727449869</v>
+        <v>0.01638244779129791</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01546246727449869</v>
+        <v>0.01638244779129791</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.01844431696177267</v>
+        <v>-0.01663794124151765</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01032111622084465</v>
+        <v>0.01336605643864226</v>
       </c>
       <c r="R26" t="n">
-        <v>0.01032111622084465</v>
+        <v>0.01336605643864226</v>
       </c>
       <c r="S26" t="n">
-        <v>0.01032111622084465</v>
+        <v>0.01336605643864226</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01032111622084465</v>
+        <v>0.01336605643864226</v>
       </c>
       <c r="U26" t="n">
-        <v>-0.02083660336196421</v>
+        <v>-0.01672759458910378</v>
       </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="n">
-        <v>-0.01733478280539131</v>
+        <v>-0.01733309378132375</v>
       </c>
       <c r="X26" t="n">
-        <v>-0.008715260028610399</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.01781767319270693</v>
-      </c>
+        <v>-0.02786240233049609</v>
+      </c>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="n">
-        <v>-0.02636701199868047</v>
+        <v>-0.0351841853433674</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.01765547120221885</v>
+        <v>0.0276435600497424</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.01765547120221885</v>
+        <v>0.0276435600497424</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.01765547120221885</v>
+        <v>0.0276435600497424</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.01765547120221885</v>
+        <v>0.0276435600497424</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.01765547120221885</v>
+        <v>0.0276435600497424</v>
       </c>
     </row>
     <row r="27">
@@ -2875,7 +2783,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.005341897077675882</v>
+        <v>0.002057158450286338</v>
       </c>
       <c r="D27" t="n">
         <v>0.01960177316807092</v>
@@ -2885,77 +2793,73 @@
         <v>0.01349850399594016</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.0130692076267683</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-0.01450509610020384</v>
-      </c>
+        <v>-0.01032039103681564</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>0.01223835360953414</v>
+        <v>0.01532371386094855</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.007996003389465324</v>
+        <v>0.00778858814290929</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.007011615928464636</v>
+        <v>-0.002045675889827035</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.007011615928464636</v>
+        <v>-0.002045675889827035</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.007011615928464636</v>
+        <v>-0.002045675889827035</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.007011615928464636</v>
+        <v>-0.002045675889827035</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.007011615928464636</v>
+        <v>-0.002045675889827035</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01443446630537865</v>
+        <v>0.0137495725179829</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.001766803654672146</v>
+        <v>0.002630281449211258</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.001766803654672146</v>
+        <v>0.002630281449211258</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.001766803654672146</v>
+        <v>0.002630281449211258</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.001766803654672146</v>
+        <v>0.002630281449211258</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.008598738824155922</v>
+        <v>-0.006350263838010553</v>
       </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="n">
-        <v>0.01196546390261856</v>
+        <v>0.01196004278240171</v>
       </c>
       <c r="X27" t="n">
-        <v>-0.001728091077123643</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>-0.01034929020597161</v>
-      </c>
+        <v>0.01355167484606699</v>
+      </c>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="n">
-        <v>0.005421827448873097</v>
+        <v>0.004453545490141818</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.001684141891365675</v>
+        <v>-0.01821456706458268</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.001684141891365675</v>
+        <v>-0.01821456706458268</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.001684141891365675</v>
+        <v>-0.01821456706458268</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.001684141891365675</v>
+        <v>-0.01821456706458268</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.001684141891365675</v>
+        <v>-0.01821456706458268</v>
       </c>
     </row>
     <row r="28">
@@ -2970,7 +2874,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01360985689639427</v>
+        <v>0.02089263942770557</v>
       </c>
       <c r="D28" t="n">
         <v>0.01176916271076651</v>
@@ -2980,77 +2884,73 @@
         <v>0.02795684195027368</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.02922340667293626</v>
-      </c>
-      <c r="H28" t="n">
-        <v>-0.02523759172950367</v>
-      </c>
+        <v>-0.0379201601088064</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>0.01803643886545755</v>
+        <v>0.01427625685905027</v>
       </c>
       <c r="J28" t="n">
-        <v>0.01485664953158171</v>
+        <v>0.005758789111627932</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.02413725168549007</v>
+        <v>-0.01190356406014256</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.02413725168549007</v>
+        <v>-0.01190356406014256</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.02413725168549007</v>
+        <v>-0.01190356406014256</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.02413725168549007</v>
+        <v>-0.01190356406014256</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.02413725168549007</v>
+        <v>-0.01190356406014256</v>
       </c>
       <c r="P28" t="n">
-        <v>0.02867382085895283</v>
+        <v>0.03284592486583699</v>
       </c>
       <c r="Q28" t="n">
-        <v>-0.02047028827481153</v>
+        <v>0.0008818264672730587</v>
       </c>
       <c r="R28" t="n">
-        <v>-0.02047028827481153</v>
+        <v>0.0008818264672730587</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.02047028827481153</v>
+        <v>0.0008818264672730587</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.02047028827481153</v>
+        <v>0.0008818264672730587</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003908231148423044</v>
+        <v>0.01298548851941954</v>
       </c>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>0.9915893233115728</v>
+        <v>0.9915873808474951</v>
       </c>
       <c r="X28" t="n">
-        <v>-0.00387794300311772</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>-0.03886077438643097</v>
-      </c>
+        <v>-0.01483274920130997</v>
+      </c>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="n">
-        <v>0.0359900550716022</v>
+        <v>0.003170910846836433</v>
       </c>
       <c r="AA28" t="n">
-        <v>-0.035720350164814</v>
+        <v>-0.01701958464878338</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.035720350164814</v>
+        <v>-0.01701958464878338</v>
       </c>
       <c r="AC28" t="n">
-        <v>-0.035720350164814</v>
+        <v>-0.01701958464878338</v>
       </c>
       <c r="AD28" t="n">
-        <v>-0.035720350164814</v>
+        <v>-0.01701958464878338</v>
       </c>
       <c r="AE28" t="n">
-        <v>-0.035720350164814</v>
+        <v>-0.01701958464878338</v>
       </c>
     </row>
     <row r="29">
@@ -3065,7 +2965,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0001117032044681282</v>
+        <v>0.002010802352432094</v>
       </c>
       <c r="D29" t="n">
         <v>-0.01346903641076145</v>
@@ -3075,77 +2975,73 @@
         <v>0.0174313676412547</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01935657351026294</v>
-      </c>
-      <c r="H29" t="n">
-        <v>-0.01669819343592773</v>
-      </c>
+        <v>-0.01587492207499688</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>-0.02396163215846528</v>
+        <v>-0.02357062663882506</v>
       </c>
       <c r="J29" t="n">
-        <v>0.03251211092388507</v>
+        <v>-0.008307994869243778</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.01935860189434407</v>
+        <v>-0.02661218458448738</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.01935860189434407</v>
+        <v>-0.02661218458448738</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.01935860189434407</v>
+        <v>-0.02661218458448738</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.01935860189434407</v>
+        <v>-0.02661218458448738</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.01935860189434407</v>
+        <v>-0.02661218458448738</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01748603676344147</v>
+        <v>0.01642226168089046</v>
       </c>
       <c r="Q29" t="n">
-        <v>-0.01845766441830658</v>
+        <v>-0.02437017044680681</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.01845766441830658</v>
+        <v>-0.02437017044680681</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.01845766441830658</v>
+        <v>-0.02437017044680681</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.01845766441830658</v>
+        <v>-0.02437017044680681</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.007093325563903263</v>
+        <v>-0.0161709550788382</v>
       </c>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="n">
-        <v>0.02121349380853975</v>
+        <v>0.02121162708846508</v>
       </c>
       <c r="X29" t="n">
-        <v>0.01493028434121137</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0.001302889876115595</v>
-      </c>
+        <v>-0.006357961598318463</v>
+      </c>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="n">
-        <v>0.01309917517996701</v>
+        <v>0.007078375483135018</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.01775108951004358</v>
+        <v>-0.008322962540918501</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.01775108951004358</v>
+        <v>-0.008322962540918501</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.01775108951004358</v>
+        <v>-0.008322962540918501</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.01775108951004358</v>
+        <v>-0.008322962540918501</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.01775108951004358</v>
+        <v>-0.008322962540918501</v>
       </c>
     </row>
     <row r="30">
@@ -3160,7 +3056,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.01531224109248964</v>
+        <v>-0.02363916689756667</v>
       </c>
       <c r="D30" t="n">
         <v>-0.02053317413332696</v>
@@ -3170,77 +3066,73 @@
         <v>0.01444127433765097</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.01722607268904291</v>
-      </c>
-      <c r="H30" t="n">
-        <v>-0.01741705836068233</v>
-      </c>
+        <v>-0.01040067296002692</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>-0.02350489130819565</v>
+        <v>-0.01863742048949682</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.005330815470316328</v>
+        <v>0.02262954946907063</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.006360488126419523</v>
+        <v>-0.003156264126250564</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.006360488126419523</v>
+        <v>-0.003156264126250564</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.006360488126419523</v>
+        <v>-0.003156264126250564</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.006360488126419523</v>
+        <v>-0.003156264126250564</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.006360488126419523</v>
+        <v>-0.003156264126250564</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01682716281708651</v>
+        <v>0.01318643937545757</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.001572404990896199</v>
+        <v>0.004891730115669205</v>
       </c>
       <c r="R30" t="n">
-        <v>0.001572404990896199</v>
+        <v>0.004891730115669205</v>
       </c>
       <c r="S30" t="n">
-        <v>0.001572404990896199</v>
+        <v>0.004891730115669205</v>
       </c>
       <c r="T30" t="n">
-        <v>0.001572404990896199</v>
+        <v>0.004891730115669205</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02031544377310532</v>
+        <v>0.01947832647513306</v>
       </c>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="n">
-        <v>0.1101092817483713</v>
+        <v>0.1101229157649166</v>
       </c>
       <c r="X30" t="n">
-        <v>-0.01039218598368744</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>-0.02759121633564865</v>
-      </c>
+        <v>0.01272984934119397</v>
+      </c>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="n">
-        <v>-0.01799195927967837</v>
+        <v>0.005914283468571337</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.001760231590409263</v>
+        <v>-0.01705031780201271</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.001760231590409263</v>
+        <v>-0.01705031780201271</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.001760231590409263</v>
+        <v>-0.01705031780201271</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.001760231590409263</v>
+        <v>-0.01705031780201271</v>
       </c>
       <c r="AE30" t="n">
-        <v>-0.001760231590409263</v>
+        <v>-0.01705031780201271</v>
       </c>
     </row>
     <row r="31">
@@ -3255,7 +3147,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.004235327881413114</v>
+        <v>-0.003620059920802396</v>
       </c>
       <c r="D31" t="n">
         <v>-0.002391382367655294</v>
@@ -3265,77 +3157,73 @@
         <v>0.002408774976350999</v>
       </c>
       <c r="G31" t="n">
-        <v>0.000286141451445658</v>
-      </c>
-      <c r="H31" t="n">
-        <v>-0.003690063891602556</v>
-      </c>
+        <v>0.003703889140155565</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>0.01289313353972534</v>
+        <v>0.01452144653285786</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.009761957687112681</v>
+        <v>-0.01567024828982068</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.001140231213609248</v>
+        <v>-0.0009697520067900802</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.001140231213609248</v>
+        <v>-0.0009697520067900802</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.001140231213609248</v>
+        <v>-0.0009697520067900802</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.001140231213609248</v>
+        <v>-0.0009697520067900802</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.001140231213609248</v>
+        <v>-0.0009697520067900802</v>
       </c>
       <c r="P31" t="n">
-        <v>0.001861561226462449</v>
+        <v>0.001541892925675717</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.480732859229314e-05</v>
+        <v>-0.0003236521089460843</v>
       </c>
       <c r="R31" t="n">
-        <v>1.480732859229314e-05</v>
+        <v>-0.0003236521089460843</v>
       </c>
       <c r="S31" t="n">
-        <v>1.480732859229314e-05</v>
+        <v>-0.0003236521089460843</v>
       </c>
       <c r="T31" t="n">
-        <v>1.480732859229314e-05</v>
+        <v>-0.0003236521089460843</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.008843479601951428</v>
+        <v>-0.007645021841800872</v>
       </c>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="n">
-        <v>0.0107483625099345</v>
+        <v>0.01073764362950574</v>
       </c>
       <c r="X31" t="n">
-        <v>-0.001516654812666192</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>-0.008816976640679064</v>
-      </c>
+        <v>0.0005943502317740092</v>
+      </c>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="n">
-        <v>0.006532847493313899</v>
+        <v>0.001083347371333895</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.003989163135566525</v>
+        <v>-0.004622099512883979</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.003989163135566525</v>
+        <v>-0.004622099512883979</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.003989163135566525</v>
+        <v>-0.004622099512883979</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.003989163135566525</v>
+        <v>-0.004622099512883979</v>
       </c>
       <c r="AE31" t="n">
-        <v>-0.003989163135566525</v>
+        <v>-0.004622099512883979</v>
       </c>
     </row>
     <row r="32">
@@ -3350,7 +3238,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.1458777415471096</v>
+        <v>0.1169988172559527</v>
       </c>
       <c r="D32" t="n">
         <v>-0.001273986386959456</v>
@@ -3360,77 +3248,73 @@
         <v>-0.9999573361582933</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9905971366798852</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.9869956307758251</v>
-      </c>
+        <v>0.9466961492598459</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>0.2450001199760048</v>
+        <v>0.2221052446602098</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.6120439214286796</v>
+        <v>-0.4669374477743102</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9310201602168062</v>
+        <v>0.7138152989206118</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9310201602168062</v>
+        <v>0.7138152989206118</v>
       </c>
       <c r="M32" t="n">
-        <v>0.9310201602168062</v>
+        <v>0.7138152989206118</v>
       </c>
       <c r="N32" t="n">
-        <v>0.9310201602168062</v>
+        <v>0.7138152989206118</v>
       </c>
       <c r="O32" t="n">
-        <v>0.9310201602168062</v>
+        <v>0.7138152989206118</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.9967771444150856</v>
+        <v>-0.9883184479487377</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.7885932502637298</v>
+        <v>0.3528289199051567</v>
       </c>
       <c r="R32" t="n">
-        <v>0.7885932502637298</v>
+        <v>0.3528289199051567</v>
       </c>
       <c r="S32" t="n">
-        <v>0.7885932502637298</v>
+        <v>0.3528289199051567</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7885932502637298</v>
+        <v>0.3528289199051567</v>
       </c>
       <c r="U32" t="n">
-        <v>-0.2314958921293916</v>
+        <v>-0.1712522524180901</v>
       </c>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="n">
-        <v>-0.02233434175737367</v>
+        <v>-0.02232609535704381</v>
       </c>
       <c r="X32" t="n">
-        <v>-0.6491451654218066</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0.02857808331912333</v>
-      </c>
+        <v>-0.4399521068460843</v>
+      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="n">
-        <v>-0.5946171744726869</v>
+        <v>-0.5585219076208763</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.8582645357385813</v>
+        <v>0.7305663921026555</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.8582645357385813</v>
+        <v>0.7305663921026555</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.8582645357385813</v>
+        <v>0.7305663921026555</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.8582645357385813</v>
+        <v>0.7305663921026555</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.8582645357385813</v>
+        <v>0.7305663921026555</v>
       </c>
     </row>
     <row r="33">
@@ -3445,7 +3329,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.01030834073233363</v>
+        <v>-0.004251370154054806</v>
       </c>
       <c r="D33" t="n">
         <v>-0.003106481884259275</v>
@@ -3455,77 +3339,73 @@
         <v>0.009491405371656214</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.006592866599714663</v>
-      </c>
-      <c r="H33" t="n">
-        <v>-0.006144108149764326</v>
-      </c>
+        <v>-0.01381545444061818</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>0.002551541286061651</v>
+        <v>-0.001385673367426934</v>
       </c>
       <c r="J33" t="n">
-        <v>0.006520634767936551</v>
+        <v>-0.009225125724680407</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.01031240978849639</v>
+        <v>-0.003543007437720297</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.01031240978849639</v>
+        <v>-0.003543007437720297</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.01031240978849639</v>
+        <v>-0.003543007437720297</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.01031240978849639</v>
+        <v>-0.003543007437720297</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.01031240978849639</v>
+        <v>-0.003543007437720297</v>
       </c>
       <c r="P33" t="n">
-        <v>0.008247045065881801</v>
+        <v>0.01115095225403809</v>
       </c>
       <c r="Q33" t="n">
-        <v>-0.01245967931438717</v>
+        <v>0.00503803776952151</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.01245967931438717</v>
+        <v>0.00503803776952151</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.01245967931438717</v>
+        <v>0.00503803776952151</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.01245967931438717</v>
+        <v>0.00503803776952151</v>
       </c>
       <c r="U33" t="n">
-        <v>0.003780701623318802</v>
+        <v>0.007450183402007336</v>
       </c>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="n">
-        <v>0.009704693572187742</v>
+        <v>0.009697119075884763</v>
       </c>
       <c r="X33" t="n">
-        <v>0.01548664189946567</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0.02070782338831293</v>
-      </c>
+        <v>-0.01482897332915893</v>
+      </c>
+      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="n">
-        <v>0.01998847951953918</v>
+        <v>-0.006490026403601056</v>
       </c>
       <c r="AA33" t="n">
-        <v>-0.01737458267898331</v>
+        <v>0.005294323507772939</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.01737458267898331</v>
+        <v>0.005294323507772939</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.01737458267898331</v>
+        <v>0.005294323507772939</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.01737458267898331</v>
+        <v>0.005294323507772939</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.01737458267898331</v>
+        <v>0.005294323507772939</v>
       </c>
     </row>
     <row r="34">
@@ -3540,7 +3420,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.0007493165099726603</v>
+        <v>-0.005645886177835445</v>
       </c>
       <c r="D34" t="n">
         <v>0.002479635075185403</v>
@@ -3550,77 +3430,73 @@
         <v>-0.003597456719898268</v>
       </c>
       <c r="G34" t="n">
-        <v>0.004152897574115902</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.00287552699502108</v>
-      </c>
+        <v>0.003580145711205828</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
-        <v>0.01341391484055659</v>
+        <v>0.01367565856302634</v>
       </c>
       <c r="J34" t="n">
-        <v>-0.002657442014825962</v>
+        <v>0.005411651512701015</v>
       </c>
       <c r="K34" t="n">
-        <v>0.006100860628034424</v>
+        <v>0.00876077075043083</v>
       </c>
       <c r="L34" t="n">
-        <v>0.006100860628034424</v>
+        <v>0.00876077075043083</v>
       </c>
       <c r="M34" t="n">
-        <v>0.006100860628034424</v>
+        <v>0.00876077075043083</v>
       </c>
       <c r="N34" t="n">
-        <v>0.006100860628034424</v>
+        <v>0.00876077075043083</v>
       </c>
       <c r="O34" t="n">
-        <v>0.006100860628034424</v>
+        <v>0.00876077075043083</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.003528364077134562</v>
+        <v>-0.003054725306189012</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.007836628441465135</v>
+        <v>0.009130263341210532</v>
       </c>
       <c r="R34" t="n">
-        <v>0.007836628441465135</v>
+        <v>0.009130263341210532</v>
       </c>
       <c r="S34" t="n">
-        <v>0.007836628441465135</v>
+        <v>0.009130263341210532</v>
       </c>
       <c r="T34" t="n">
-        <v>0.007836628441465135</v>
+        <v>0.009130263341210532</v>
       </c>
       <c r="U34" t="n">
-        <v>-0.02030841786882412</v>
+        <v>-0.01794173572566943</v>
       </c>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="n">
-        <v>-0.01313615447744618</v>
+        <v>-0.01313257194930288</v>
       </c>
       <c r="X34" t="n">
-        <v>-0.006669591434783657</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0.0004204228968169158</v>
-      </c>
+        <v>0.004303877068155082</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="n">
-        <v>0.006588527687541106</v>
+        <v>0.01842236406489456</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.008795851071834041</v>
+        <v>-0.0002766440750657629</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.008795851071834041</v>
+        <v>-0.0002766440750657629</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.008795851071834041</v>
+        <v>-0.0002766440750657629</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.008795851071834041</v>
+        <v>-0.0002766440750657629</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.008795851071834041</v>
+        <v>-0.0002766440750657629</v>
       </c>
     </row>
     <row r="35">
@@ -3635,7 +3511,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.01779690464787618</v>
+        <v>-0.01437678892707155</v>
       </c>
       <c r="D35" t="n">
         <v>0.007347835109913403</v>
@@ -3645,77 +3521,73 @@
         <v>0.0271571599022864</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.02384641103385644</v>
-      </c>
-      <c r="H35" t="n">
-        <v>-0.02476387635055505</v>
-      </c>
+        <v>-0.03192842191713687</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>-0.005797157703886308</v>
+        <v>-0.007339435973577438</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01297268833301299</v>
+        <v>0.02537920913930599</v>
       </c>
       <c r="K35" t="n">
-        <v>0.3084191637607665</v>
+        <v>0.5899876439835057</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3084191637607665</v>
+        <v>0.5899876439835057</v>
       </c>
       <c r="M35" t="n">
-        <v>0.3084191637607665</v>
+        <v>0.5899876439835057</v>
       </c>
       <c r="N35" t="n">
-        <v>0.3084191637607665</v>
+        <v>0.5899876439835057</v>
       </c>
       <c r="O35" t="n">
-        <v>0.3084191637607665</v>
+        <v>0.5899876439835057</v>
       </c>
       <c r="P35" t="n">
-        <v>0.07361483900859356</v>
+        <v>0.07816364751054589</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.5291558900622355</v>
+        <v>0.7882929191477167</v>
       </c>
       <c r="R35" t="n">
-        <v>0.5291558900622355</v>
+        <v>0.7882929191477167</v>
       </c>
       <c r="S35" t="n">
-        <v>0.5291558900622355</v>
+        <v>0.7882929191477167</v>
       </c>
       <c r="T35" t="n">
-        <v>0.5291558900622355</v>
+        <v>0.7882929191477167</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02339383068031468</v>
+        <v>0.03014664466186578</v>
       </c>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="n">
-        <v>-0.0006257170810286831</v>
+        <v>-0.0006392631615705264</v>
       </c>
       <c r="X35" t="n">
-        <v>0.02627319647492786</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0.01237830270313211</v>
-      </c>
+        <v>0.01228019521120781</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="n">
-        <v>0.02456250645450025</v>
+        <v>0.01279189836767593</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.0486105699124228</v>
+        <v>0.1412137556005502</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.0486105699124228</v>
+        <v>0.1412137556005502</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.0486105699124228</v>
+        <v>0.1412137556005502</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.0486105699124228</v>
+        <v>0.1412137556005502</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.0486105699124228</v>
+        <v>0.1412137556005502</v>
       </c>
     </row>
     <row r="36">
@@ -3730,7 +3602,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.03190058594802343</v>
+        <v>-0.0300653052026122</v>
       </c>
       <c r="D36" t="n">
         <v>-0.005466936218677448</v>
@@ -3740,77 +3612,73 @@
         <v>-0.01397041774281671</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01189900953196038</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.0153446123897845</v>
-      </c>
+        <v>0.007506006732240268</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>0.002419387872775514</v>
+        <v>-0.0009262291570491662</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.002512782488793081</v>
+        <v>0.00638439881852915</v>
       </c>
       <c r="K36" t="n">
-        <v>0.01653834565353382</v>
+        <v>0.01493335096533403</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01653834565353382</v>
+        <v>0.01493335096533403</v>
       </c>
       <c r="M36" t="n">
-        <v>0.01653834565353382</v>
+        <v>0.01493335096533403</v>
       </c>
       <c r="N36" t="n">
-        <v>0.01653834565353382</v>
+        <v>0.01493335096533403</v>
       </c>
       <c r="O36" t="n">
-        <v>0.01653834565353382</v>
+        <v>0.01493335096533403</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.01301383607255344</v>
+        <v>-0.01184046450561858</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01836469311858772</v>
+        <v>0.01138881338355253</v>
       </c>
       <c r="R36" t="n">
-        <v>0.01836469311858772</v>
+        <v>0.01138881338355253</v>
       </c>
       <c r="S36" t="n">
-        <v>0.01836469311858772</v>
+        <v>0.01138881338355253</v>
       </c>
       <c r="T36" t="n">
-        <v>0.01836469311858772</v>
+        <v>0.01138881338355253</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02163436800189394</v>
+        <v>0.02145117071404682</v>
       </c>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="n">
-        <v>0.01618695242347809</v>
+        <v>0.01618657149546286</v>
       </c>
       <c r="X36" t="n">
-        <v>-0.00219681877587275</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0.01057870151114806</v>
-      </c>
+        <v>-0.008014347008573878</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="n">
-        <v>-0.008581496023259839</v>
+        <v>-0.01371732122069285</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.008165884646635384</v>
+        <v>0.01582385660095426</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.008165884646635384</v>
+        <v>0.01582385660095426</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.008165884646635384</v>
+        <v>0.01582385660095426</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.008165884646635384</v>
+        <v>0.01582385660095426</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.008165884646635384</v>
+        <v>0.01582385660095426</v>
       </c>
     </row>
     <row r="37">
@@ -3825,7 +3693,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.004617642328705692</v>
+        <v>0.005319069428762776</v>
       </c>
       <c r="D37" t="n">
         <v>0.01341683295267332</v>
@@ -3835,77 +3703,73 @@
         <v>-0.003340387333615493</v>
       </c>
       <c r="G37" t="n">
-        <v>0.00414319974972799</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.001163787598551504</v>
-      </c>
+        <v>0.004583330391333215</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>0.01627802100312084</v>
+        <v>0.01872109610884384</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.007729929682368987</v>
+        <v>0.01103125780234408</v>
       </c>
       <c r="K37" t="n">
-        <v>0.003053531162141246</v>
+        <v>0.001810080072403203</v>
       </c>
       <c r="L37" t="n">
-        <v>0.003053531162141246</v>
+        <v>0.001810080072403203</v>
       </c>
       <c r="M37" t="n">
-        <v>0.003053531162141246</v>
+        <v>0.001810080072403203</v>
       </c>
       <c r="N37" t="n">
-        <v>0.003053531162141246</v>
+        <v>0.001810080072403203</v>
       </c>
       <c r="O37" t="n">
-        <v>0.003053531162141246</v>
+        <v>0.001810080072403203</v>
       </c>
       <c r="P37" t="n">
-        <v>-0.003865773658630946</v>
+        <v>-0.004766201278648051</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.004041049793641991</v>
+        <v>0.0001832181193287247</v>
       </c>
       <c r="R37" t="n">
-        <v>0.004041049793641991</v>
+        <v>0.0001832181193287247</v>
       </c>
       <c r="S37" t="n">
-        <v>0.004041049793641991</v>
+        <v>0.0001832181193287247</v>
       </c>
       <c r="T37" t="n">
-        <v>0.004041049793641991</v>
+        <v>0.0001832181193287247</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.007846484810047709</v>
+        <v>-0.008775868383034733</v>
       </c>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="n">
-        <v>-0.001485924731436989</v>
+        <v>-0.001486702523468101</v>
       </c>
       <c r="X37" t="n">
-        <v>0.001612723072508923</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>-0.01636385777455431</v>
-      </c>
+        <v>0.009764172678566906</v>
+      </c>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="n">
-        <v>0.01273066879722675</v>
+        <v>0.007533021133320845</v>
       </c>
       <c r="AA37" t="n">
-        <v>-0.002948565621942624</v>
+        <v>-0.0050017175120687</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.002948565621942624</v>
+        <v>-0.0050017175120687</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.002948565621942624</v>
+        <v>-0.0050017175120687</v>
       </c>
       <c r="AD37" t="n">
-        <v>-0.002948565621942624</v>
+        <v>-0.0050017175120687</v>
       </c>
       <c r="AE37" t="n">
-        <v>-0.002948565621942624</v>
+        <v>-0.0050017175120687</v>
       </c>
     </row>
     <row r="38">
@@ -3920,7 +3784,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01880913204836528</v>
+        <v>0.01630672663626906</v>
       </c>
       <c r="D38" t="n">
         <v>0.02909218925968757</v>
@@ -3930,77 +3794,73 @@
         <v>0.01466136452245458</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01291033549241342</v>
-      </c>
-      <c r="H38" t="n">
-        <v>-0.01529779539591181</v>
-      </c>
+        <v>-0.01205978563439142</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>0.002800885552035422</v>
+        <v>0.004146484965859398</v>
       </c>
       <c r="J38" t="n">
-        <v>0.005238059306448025</v>
+        <v>-0.002918203661482757</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.009995002863800112</v>
+        <v>-0.005156042414241695</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.009995002863800112</v>
+        <v>-0.005156042414241695</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.009995002863800112</v>
+        <v>-0.005156042414241695</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.009995002863800112</v>
+        <v>-0.005156042414241695</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.009995002863800112</v>
+        <v>-0.005156042414241695</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01407431624297265</v>
+        <v>0.01409784641991385</v>
       </c>
       <c r="Q38" t="n">
-        <v>-0.003382486983299479</v>
+        <v>-3.77708175108327e-05</v>
       </c>
       <c r="R38" t="n">
-        <v>-0.003382486983299479</v>
+        <v>-3.77708175108327e-05</v>
       </c>
       <c r="S38" t="n">
-        <v>-0.003382486983299479</v>
+        <v>-3.77708175108327e-05</v>
       </c>
       <c r="T38" t="n">
-        <v>-0.003382486983299479</v>
+        <v>-3.77708175108327e-05</v>
       </c>
       <c r="U38" t="n">
-        <v>0.001888789659596917</v>
+        <v>-0.002041188849647554</v>
       </c>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="n">
-        <v>0.001504757628190305</v>
+        <v>0.001503543420141736</v>
       </c>
       <c r="X38" t="n">
-        <v>0.008820937504837499</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>-0.008281740811269632</v>
-      </c>
+        <v>0.006815379824615192</v>
+      </c>
+      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="n">
-        <v>0.003661397138455885</v>
+        <v>0.004521157428846297</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.008174859782994389</v>
+        <v>-0.00994146951765878</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.008174859782994389</v>
+        <v>-0.00994146951765878</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.008174859782994389</v>
+        <v>-0.00994146951765878</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.008174859782994389</v>
+        <v>-0.00994146951765878</v>
       </c>
       <c r="AE38" t="n">
-        <v>-0.008174859782994389</v>
+        <v>-0.00994146951765878</v>
       </c>
     </row>
     <row r="39">
@@ -4015,7 +3875,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.009365770742630827</v>
+        <v>-0.001020386632815465</v>
       </c>
       <c r="D39" t="n">
         <v>0.009771227334849092</v>
@@ -4025,77 +3885,73 @@
         <v>-0.001200285552011422</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0007166780446671217</v>
-      </c>
-      <c r="H39" t="n">
-        <v>-0.00346554925862197</v>
-      </c>
+        <v>0.00556034527841381</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>-0.00256205050248202</v>
+        <v>-0.0006513190340527613</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.01297069926093004</v>
+        <v>-0.005416957912929191</v>
       </c>
       <c r="K39" t="n">
-        <v>0.02588512826740513</v>
+        <v>-0.01479667556786702</v>
       </c>
       <c r="L39" t="n">
-        <v>0.02588512826740513</v>
+        <v>-0.01479667556786702</v>
       </c>
       <c r="M39" t="n">
-        <v>0.02588512826740513</v>
+        <v>-0.01479667556786702</v>
       </c>
       <c r="N39" t="n">
-        <v>0.02588512826740513</v>
+        <v>-0.01479667556786702</v>
       </c>
       <c r="O39" t="n">
-        <v>0.02588512826740513</v>
+        <v>-0.01479667556786702</v>
       </c>
       <c r="P39" t="n">
-        <v>0.002808772144350885</v>
+        <v>-0.004701955388078215</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.03984785352991414</v>
+        <v>-0.020704674972187</v>
       </c>
       <c r="R39" t="n">
-        <v>0.03984785352991414</v>
+        <v>-0.020704674972187</v>
       </c>
       <c r="S39" t="n">
-        <v>0.03984785352991414</v>
+        <v>-0.020704674972187</v>
       </c>
       <c r="T39" t="n">
-        <v>0.03984785352991414</v>
+        <v>-0.020704674972187</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.002095748723880247</v>
+        <v>0.000752745150109806</v>
       </c>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="n">
-        <v>0.006678843627153745</v>
+        <v>0.006683000811320033</v>
       </c>
       <c r="X39" t="n">
-        <v>-0.01815457224618289</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>-0.02661168144846725</v>
-      </c>
+        <v>0.01480531105621244</v>
+      </c>
+      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="n">
-        <v>-0.005995120079804802</v>
+        <v>0.01043826953753078</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.02617334139893365</v>
+        <v>-0.01475101460604058</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.02617334139893365</v>
+        <v>-0.01475101460604058</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.02617334139893365</v>
+        <v>-0.01475101460604058</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.02617334139893365</v>
+        <v>-0.01475101460604058</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.02617334139893365</v>
+        <v>-0.01475101460604058</v>
       </c>
     </row>
   </sheetData>
